--- a/teaching/traditional_assets/database/data/mauritius/mauritius_real_estate_general_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_real_estate_general_diversified.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="muse_utdl_n0000" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.181</v>
+        <v>0.208</v>
       </c>
       <c r="G2">
-        <v>0.1684523809523809</v>
+        <v>0.06137931034482758</v>
       </c>
       <c r="H2">
-        <v>0.1684523809523809</v>
+        <v>0.06137931034482758</v>
       </c>
       <c r="I2">
-        <v>-0.1613095238095238</v>
+        <v>0.05724137931034484</v>
       </c>
       <c r="J2">
-        <v>-0.1613095238095238</v>
+        <v>0.05724137931034484</v>
       </c>
       <c r="K2">
-        <v>0.5590000000000001</v>
+        <v>-0.391</v>
       </c>
       <c r="L2">
-        <v>0.3327380952380953</v>
+        <v>-0.2696551724137931</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,61 +641,61 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.009270315091210615</v>
+        <v>-0.006908127208480565</v>
       </c>
       <c r="X2">
-        <v>0.07253653434390063</v>
+        <v>0.05797523409995559</v>
       </c>
       <c r="Y2">
-        <v>-0.06326621925269002</v>
+        <v>-0.06488336130843615</v>
       </c>
       <c r="Z2">
-        <v>0.02548543689320388</v>
+        <v>0.0235619109522262</v>
       </c>
       <c r="AA2">
-        <v>-0.004111043689320389</v>
+        <v>0.001348716282092948</v>
       </c>
       <c r="AB2">
-        <v>0.06472606748686202</v>
+        <v>0.05023549538515384</v>
       </c>
       <c r="AC2">
-        <v>-0.06883711117618241</v>
+        <v>-0.0488867791030609</v>
       </c>
       <c r="AD2">
-        <v>4.94</v>
+        <v>4.59</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.94</v>
+        <v>4.59</v>
       </c>
       <c r="AG2">
-        <v>4.94</v>
+        <v>4.59</v>
       </c>
       <c r="AH2">
-        <v>0.2098555649957519</v>
+        <v>0.2609437180216032</v>
       </c>
       <c r="AI2">
-        <v>0.08027299317517063</v>
+        <v>0.08154201456741872</v>
       </c>
       <c r="AJ2">
-        <v>0.2098555649957519</v>
+        <v>0.2609437180216032</v>
       </c>
       <c r="AK2">
-        <v>0.08027299317517063</v>
+        <v>0.08154201456741872</v>
       </c>
       <c r="AL2">
-        <v>0.5570000000000001</v>
+        <v>0.474</v>
       </c>
       <c r="AM2">
-        <v>0.5570000000000001</v>
+        <v>0.474</v>
       </c>
       <c r="AO2">
-        <v>-0.4865350089766607</v>
+        <v>0.1751054852320675</v>
       </c>
       <c r="AQ2">
-        <v>-0.4865350089766607</v>
+        <v>0.1751054852320675</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +715,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.181</v>
+        <v>0.208</v>
       </c>
       <c r="G3">
-        <v>0.1684523809523809</v>
+        <v>0.06137931034482758</v>
       </c>
       <c r="H3">
-        <v>0.1684523809523809</v>
+        <v>0.06137931034482758</v>
       </c>
       <c r="I3">
-        <v>-0.1613095238095238</v>
+        <v>0.05724137931034484</v>
       </c>
       <c r="J3">
-        <v>-0.1613095238095238</v>
+        <v>0.05724137931034484</v>
       </c>
       <c r="K3">
-        <v>0.5590000000000001</v>
+        <v>-0.391</v>
       </c>
       <c r="L3">
-        <v>0.3327380952380953</v>
+        <v>-0.2696551724137931</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,7 +751,7 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,61 +763,8779 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.009270315091210615</v>
+        <v>-0.006908127208480565</v>
       </c>
       <c r="X3">
-        <v>0.07253653434390063</v>
+        <v>0.05797523409995559</v>
       </c>
       <c r="Y3">
-        <v>-0.06326621925269002</v>
+        <v>-0.06488336130843615</v>
       </c>
       <c r="Z3">
-        <v>0.02548543689320388</v>
+        <v>0.0235619109522262</v>
       </c>
       <c r="AA3">
-        <v>-0.004111043689320389</v>
+        <v>0.001348716282092948</v>
       </c>
       <c r="AB3">
-        <v>0.06472606748686202</v>
+        <v>0.05023549538515384</v>
       </c>
       <c r="AC3">
-        <v>-0.06883711117618241</v>
+        <v>-0.0488867791030609</v>
       </c>
       <c r="AD3">
-        <v>4.94</v>
+        <v>4.59</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.94</v>
+        <v>4.59</v>
       </c>
       <c r="AG3">
-        <v>4.94</v>
+        <v>4.59</v>
       </c>
       <c r="AH3">
-        <v>0.2098555649957519</v>
+        <v>0.2609437180216032</v>
       </c>
       <c r="AI3">
-        <v>0.08027299317517063</v>
+        <v>0.08154201456741872</v>
       </c>
       <c r="AJ3">
-        <v>0.2098555649957519</v>
+        <v>0.2609437180216032</v>
       </c>
       <c r="AK3">
-        <v>0.08027299317517063</v>
+        <v>0.08154201456741872</v>
       </c>
       <c r="AL3">
-        <v>0.5570000000000001</v>
+        <v>0.474</v>
       </c>
       <c r="AM3">
-        <v>0.5570000000000001</v>
+        <v>0.474</v>
       </c>
       <c r="AO3">
-        <v>-0.4865350089766607</v>
+        <v>0.1751054852320675</v>
       </c>
       <c r="AQ3">
-        <v>-0.4865350089766607</v>
+        <v>0.1751054852320675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>United Docks Ltd (MUSE:UTDL.N0000)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MUSE:UTDL.N0000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Real Estate (General/Diversified)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.260943718021603</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>18.8926570560029</v>
+      </c>
+      <c r="I2">
+        <v>17.59</v>
+      </c>
+      <c r="J2">
+        <v>19.2444570560029</v>
+      </c>
+      <c r="K2">
+        <v>4.59</v>
+      </c>
+      <c r="L2">
+        <v>0.3518</v>
+      </c>
+      <c r="M2">
+        <v>0.0502354953851538</v>
+      </c>
+      <c r="N2">
+        <v>0.0467162472721075</v>
+      </c>
+      <c r="O2">
+        <v>0.0283146667811402</v>
+      </c>
+      <c r="P2">
+        <v>0.01377</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0579752340999556</v>
+      </c>
+      <c r="T2">
+        <v>0.0473886196654158</v>
+      </c>
+      <c r="U2">
+        <v>0.776753341083499</v>
+      </c>
+      <c r="V2">
+        <v>0.607813462624875</v>
+      </c>
+      <c r="W2">
+        <v>14.56354971609851</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>13</v>
+      </c>
+      <c r="AB2">
+        <v>0.06266498195174562</v>
+      </c>
+      <c r="AC2">
+        <v>0.03331137268369437</v>
+      </c>
+      <c r="AD2">
+        <v>0.15</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>-0.083</v>
+      </c>
+      <c r="AI2">
+        <v>-0.083</v>
+      </c>
+      <c r="AJ2">
+        <v>4.59</v>
+      </c>
+      <c r="AK2">
+        <v>4.59</v>
+      </c>
+      <c r="AL2">
+        <v>0.474</v>
+      </c>
+      <c r="AM2">
+        <v>4.59</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04673916476640669</v>
+      </c>
+      <c r="C2">
+        <v>19.23267701930534</v>
+      </c>
+      <c r="D2">
+        <v>19.23267701930534</v>
+      </c>
+      <c r="E2">
+        <v>-4.59</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>-0.083</v>
+      </c>
+      <c r="L2">
+        <v>0.083</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.083</v>
+      </c>
+      <c r="O2">
+        <v>0.01245</v>
+      </c>
+      <c r="P2">
+        <v>0.07055</v>
+      </c>
+      <c r="Q2">
+        <v>-0.01245</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.04673916476640669</v>
+      </c>
+      <c r="T2">
+        <v>0.5974495419983723</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.15</v>
+      </c>
+      <c r="W2">
+        <v>0.01377</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.04672770601925706</v>
+      </c>
+      <c r="C3">
+        <v>19.06266523438487</v>
+      </c>
+      <c r="D3">
+        <v>19.23856523438486</v>
+      </c>
+      <c r="E3">
+        <v>-4.414099999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.1759</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>-0.083</v>
+      </c>
+      <c r="L3">
+        <v>0.083</v>
+      </c>
+      <c r="M3">
+        <v>0.00284958</v>
+      </c>
+      <c r="N3">
+        <v>0.08015042</v>
+      </c>
+      <c r="O3">
+        <v>0.012022563</v>
+      </c>
+      <c r="P3">
+        <v>0.068127857</v>
+      </c>
+      <c r="Q3">
+        <v>-0.014872143</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.0470606121406637</v>
+      </c>
+      <c r="T3">
+        <v>0.6025791592781562</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.15</v>
+      </c>
+      <c r="W3">
+        <v>0.01377</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>29.12709943219702</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04671624727210747</v>
+      </c>
+      <c r="C4">
+        <v>18.89265705600285</v>
+      </c>
+      <c r="D4">
+        <v>19.24445705600285</v>
+      </c>
+      <c r="E4">
+        <v>-4.2382</v>
+      </c>
+      <c r="F4">
+        <v>0.3518</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>-0.083</v>
+      </c>
+      <c r="L4">
+        <v>0.083</v>
+      </c>
+      <c r="M4">
+        <v>0.00569916</v>
+      </c>
+      <c r="N4">
+        <v>0.07730084000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.011595126</v>
+      </c>
+      <c r="P4">
+        <v>0.06570571400000001</v>
+      </c>
+      <c r="Q4">
+        <v>-0.01729428599999999</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.04738861966541578</v>
+      </c>
+      <c r="T4">
+        <v>0.6078134626248748</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.15</v>
+      </c>
+      <c r="W4">
+        <v>0.01377</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>14.56354971609851</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04682973852495785</v>
+      </c>
+      <c r="C5">
+        <v>18.65856113917656</v>
+      </c>
+      <c r="D5">
+        <v>19.18626113917656</v>
+      </c>
+      <c r="E5">
+        <v>-4.0623</v>
+      </c>
+      <c r="F5">
+        <v>0.5276999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-0.083</v>
+      </c>
+      <c r="L5">
+        <v>0.083</v>
+      </c>
+      <c r="M5">
+        <v>0.01113447</v>
+      </c>
+      <c r="N5">
+        <v>0.07186553000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0107798295</v>
+      </c>
+      <c r="P5">
+        <v>0.06108570050000001</v>
+      </c>
+      <c r="Q5">
+        <v>-0.0219142995</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.04772339023191531</v>
+      </c>
+      <c r="T5">
+        <v>0.6131556897519377</v>
+      </c>
+      <c r="U5">
+        <v>0.0211</v>
+      </c>
+      <c r="V5">
+        <v>0.15</v>
+      </c>
+      <c r="W5">
+        <v>0.017935</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>7.454328764638103</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.04691092977780825</v>
+      </c>
+      <c r="C6">
+        <v>18.44124348243137</v>
+      </c>
+      <c r="D6">
+        <v>19.14484348243137</v>
+      </c>
+      <c r="E6">
+        <v>-3.8864</v>
+      </c>
+      <c r="F6">
+        <v>0.7036</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-0.083</v>
+      </c>
+      <c r="L6">
+        <v>0.083</v>
+      </c>
+      <c r="M6">
+        <v>0.01590136</v>
+      </c>
+      <c r="N6">
+        <v>0.06709864</v>
+      </c>
+      <c r="O6">
+        <v>0.010064796</v>
+      </c>
+      <c r="P6">
+        <v>0.057033844</v>
+      </c>
+      <c r="Q6">
+        <v>-0.025966156</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04806513518521692</v>
+      </c>
+      <c r="T6">
+        <v>0.6186092132774813</v>
+      </c>
+      <c r="U6">
+        <v>0.0226</v>
+      </c>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6">
+        <v>0.01921</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>5.219679323026458</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05077326605866418</v>
+      </c>
+      <c r="C7">
+        <v>16.48241605470217</v>
+      </c>
+      <c r="D7">
+        <v>17.36191605470217</v>
+      </c>
+      <c r="E7">
+        <v>-3.7105</v>
+      </c>
+      <c r="F7">
+        <v>0.8795000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-0.083</v>
+      </c>
+      <c r="L7">
+        <v>0.083</v>
+      </c>
+      <c r="M7">
+        <v>0.09586550000000001</v>
+      </c>
+      <c r="N7">
+        <v>-0.0128655</v>
+      </c>
+      <c r="O7">
+        <v>-0.001929825</v>
+      </c>
+      <c r="P7">
+        <v>-0.010935675</v>
+      </c>
+      <c r="Q7">
+        <v>-0.09393567500000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.04845374165775429</v>
+      </c>
+      <c r="T7">
+        <v>0.6248105471075399</v>
+      </c>
+      <c r="U7">
+        <v>0.109</v>
+      </c>
+      <c r="V7">
+        <v>0.1298694525141996</v>
+      </c>
+      <c r="W7">
+        <v>0.09484422967595224</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>0.8657963500946639</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.0536963676134149</v>
+      </c>
+      <c r="C8">
+        <v>15.1633900166698</v>
+      </c>
+      <c r="D8">
+        <v>16.2187900166698</v>
+      </c>
+      <c r="E8">
+        <v>-3.5346</v>
+      </c>
+      <c r="F8">
+        <v>1.0554</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-0.083</v>
+      </c>
+      <c r="L8">
+        <v>0.083</v>
+      </c>
+      <c r="M8">
+        <v>0.14796708</v>
+      </c>
+      <c r="N8">
+        <v>-0.06496707999999997</v>
+      </c>
+      <c r="O8">
+        <v>-0.009745061999999995</v>
+      </c>
+      <c r="P8">
+        <v>-0.05522201799999997</v>
+      </c>
+      <c r="Q8">
+        <v>-0.138222018</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04892782566980564</v>
+      </c>
+      <c r="T8">
+        <v>0.6323759208982227</v>
+      </c>
+      <c r="U8">
+        <v>0.1402</v>
+      </c>
+      <c r="V8">
+        <v>0.08414033716148216</v>
+      </c>
+      <c r="W8">
+        <v>0.1284035247299602</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.5609355810765477</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.0580951246939829</v>
+      </c>
+      <c r="C9">
+        <v>13.52540711655439</v>
+      </c>
+      <c r="D9">
+        <v>14.75670711655439</v>
+      </c>
+      <c r="E9">
+        <v>-3.3587</v>
+      </c>
+      <c r="F9">
+        <v>1.2313</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-0.083</v>
+      </c>
+      <c r="L9">
+        <v>0.083</v>
+      </c>
+      <c r="M9">
+        <v>0.22618981</v>
+      </c>
+      <c r="N9">
+        <v>-0.14318981</v>
+      </c>
+      <c r="O9">
+        <v>-0.0214784715</v>
+      </c>
+      <c r="P9">
+        <v>-0.1217113385</v>
+      </c>
+      <c r="Q9">
+        <v>-0.2047113385</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.049402057215253</v>
+      </c>
+      <c r="T9">
+        <v>0.6399436490085176</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>0.05504226737712013</v>
+      </c>
+      <c r="W9">
+        <v>0.173588735482823</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.3669484491808008</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.0598391246939829</v>
+      </c>
+      <c r="C10">
+        <v>12.84028386888039</v>
+      </c>
+      <c r="D10">
+        <v>14.24748386888039</v>
+      </c>
+      <c r="E10">
+        <v>-3.1828</v>
+      </c>
+      <c r="F10">
+        <v>1.4072</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-0.083</v>
+      </c>
+      <c r="L10">
+        <v>0.083</v>
+      </c>
+      <c r="M10">
+        <v>0.25850264</v>
+      </c>
+      <c r="N10">
+        <v>-0.17550264</v>
+      </c>
+      <c r="O10">
+        <v>-0.026325396</v>
+      </c>
+      <c r="P10">
+        <v>-0.149177244</v>
+      </c>
+      <c r="Q10">
+        <v>-0.232177244</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04983794914150574</v>
+      </c>
+      <c r="T10">
+        <v>0.6468995582368712</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>0.04816198395498011</v>
+      </c>
+      <c r="W10">
+        <v>0.1748526435474702</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.3210798930332008</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0615831246939829</v>
+      </c>
+      <c r="C11">
+        <v>12.1891327814069</v>
+      </c>
+      <c r="D11">
+        <v>13.7722327814069</v>
+      </c>
+      <c r="E11">
+        <v>-3.0069</v>
+      </c>
+      <c r="F11">
+        <v>1.5831</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>-0.083</v>
+      </c>
+      <c r="L11">
+        <v>0.083</v>
+      </c>
+      <c r="M11">
+        <v>0.29081547</v>
+      </c>
+      <c r="N11">
+        <v>-0.20781547</v>
+      </c>
+      <c r="O11">
+        <v>-0.0311723205</v>
+      </c>
+      <c r="P11">
+        <v>-0.1766431495</v>
+      </c>
+      <c r="Q11">
+        <v>-0.2596431495</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05028342111009372</v>
+      </c>
+      <c r="T11">
+        <v>0.6540083445911224</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0.04281065240442676</v>
+      </c>
+      <c r="W11">
+        <v>0.1758356831533068</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.2854043493628452</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.0633271246939829</v>
+      </c>
+      <c r="C12">
+        <v>11.5686639818119</v>
+      </c>
+      <c r="D12">
+        <v>13.3276639818119</v>
+      </c>
+      <c r="E12">
+        <v>-2.831</v>
+      </c>
+      <c r="F12">
+        <v>1.759</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-0.083</v>
+      </c>
+      <c r="L12">
+        <v>0.083</v>
+      </c>
+      <c r="M12">
+        <v>0.3231283</v>
+      </c>
+      <c r="N12">
+        <v>-0.2401283</v>
+      </c>
+      <c r="O12">
+        <v>-0.036019245</v>
+      </c>
+      <c r="P12">
+        <v>-0.204109055</v>
+      </c>
+      <c r="Q12">
+        <v>-0.287109055</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05073879245576142</v>
+      </c>
+      <c r="T12">
+        <v>0.6612751039754682</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.03852958716398409</v>
+      </c>
+      <c r="W12">
+        <v>0.1766221148379761</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.2568639144265606</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06507112469398291</v>
+      </c>
+      <c r="C13">
+        <v>10.97599910371741</v>
+      </c>
+      <c r="D13">
+        <v>12.91089910371741</v>
+      </c>
+      <c r="E13">
+        <v>-2.6551</v>
+      </c>
+      <c r="F13">
+        <v>1.9349</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>-0.083</v>
+      </c>
+      <c r="L13">
+        <v>0.083</v>
+      </c>
+      <c r="M13">
+        <v>0.35544113</v>
+      </c>
+      <c r="N13">
+        <v>-0.27244113</v>
+      </c>
+      <c r="O13">
+        <v>-0.04086616949999999</v>
+      </c>
+      <c r="P13">
+        <v>-0.2315749605</v>
+      </c>
+      <c r="Q13">
+        <v>-0.3145749605</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05120439686537673</v>
+      </c>
+      <c r="T13">
+        <v>0.6687051613235073</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.03502689742180372</v>
+      </c>
+      <c r="W13">
+        <v>0.1772655589436146</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.2335126494786915</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.0668151246939829</v>
+      </c>
+      <c r="C14">
+        <v>10.40860889732934</v>
+      </c>
+      <c r="D14">
+        <v>12.51940889732934</v>
+      </c>
+      <c r="E14">
+        <v>-2.4792</v>
+      </c>
+      <c r="F14">
+        <v>2.1108</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>-0.083</v>
+      </c>
+      <c r="L14">
+        <v>0.083</v>
+      </c>
+      <c r="M14">
+        <v>0.38775396</v>
+      </c>
+      <c r="N14">
+        <v>-0.3047539599999999</v>
+      </c>
+      <c r="O14">
+        <v>-0.04571309399999999</v>
+      </c>
+      <c r="P14">
+        <v>-0.2590408659999999</v>
+      </c>
+      <c r="Q14">
+        <v>-0.3420408659999999</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05168058319339237</v>
+      </c>
+      <c r="T14">
+        <v>0.6763040836112744</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.03210798930332008</v>
+      </c>
+      <c r="W14">
+        <v>0.1778017623649801</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.2140532620221339</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.0685591246939829</v>
+      </c>
+      <c r="C15">
+        <v>9.864261856815439</v>
+      </c>
+      <c r="D15">
+        <v>12.15096185681544</v>
+      </c>
+      <c r="E15">
+        <v>-2.3033</v>
+      </c>
+      <c r="F15">
+        <v>2.2867</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>-0.083</v>
+      </c>
+      <c r="L15">
+        <v>0.083</v>
+      </c>
+      <c r="M15">
+        <v>0.42006679</v>
+      </c>
+      <c r="N15">
+        <v>-0.33706679</v>
+      </c>
+      <c r="O15">
+        <v>-0.0505600185</v>
+      </c>
+      <c r="P15">
+        <v>-0.2865067715</v>
+      </c>
+      <c r="Q15">
+        <v>-0.3695067715000001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.0521677163335463</v>
+      </c>
+      <c r="T15">
+        <v>0.6840776937677259</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.02963814397229545</v>
+      </c>
+      <c r="W15">
+        <v>0.1782554729522893</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.1975876264819697</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07030312469398289</v>
+      </c>
+      <c r="C16">
+        <v>9.340981659742086</v>
+      </c>
+      <c r="D16">
+        <v>11.80358165974209</v>
+      </c>
+      <c r="E16">
+        <v>-2.1274</v>
+      </c>
+      <c r="F16">
+        <v>2.4626</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-0.083</v>
+      </c>
+      <c r="L16">
+        <v>0.083</v>
+      </c>
+      <c r="M16">
+        <v>0.45237962</v>
+      </c>
+      <c r="N16">
+        <v>-0.36937962</v>
+      </c>
+      <c r="O16">
+        <v>-0.055406943</v>
+      </c>
+      <c r="P16">
+        <v>-0.313972677</v>
+      </c>
+      <c r="Q16">
+        <v>-0.3969726770000001</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05266617815137824</v>
+      </c>
+      <c r="T16">
+        <v>0.6920320855557226</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.02752113368856006</v>
+      </c>
+      <c r="W16">
+        <v>0.1786443677414115</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.1834742245904004</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07204712469398289</v>
+      </c>
+      <c r="C17">
+        <v>8.837011704106905</v>
+      </c>
+      <c r="D17">
+        <v>11.47551170410691</v>
+      </c>
+      <c r="E17">
+        <v>-1.9515</v>
+      </c>
+      <c r="F17">
+        <v>2.6385</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>-0.083</v>
+      </c>
+      <c r="L17">
+        <v>0.083</v>
+      </c>
+      <c r="M17">
+        <v>0.48469245</v>
+      </c>
+      <c r="N17">
+        <v>-0.40169245</v>
+      </c>
+      <c r="O17">
+        <v>-0.0602538675</v>
+      </c>
+      <c r="P17">
+        <v>-0.3414385825</v>
+      </c>
+      <c r="Q17">
+        <v>-0.4244385825</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05317636848257092</v>
+      </c>
+      <c r="T17">
+        <v>0.7001736395034369</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.02568639144265606</v>
+      </c>
+      <c r="W17">
+        <v>0.1789814098919841</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.1712426096177071</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.0737911246939829</v>
+      </c>
+      <c r="C18">
+        <v>8.350785399411063</v>
+      </c>
+      <c r="D18">
+        <v>11.16518539941106</v>
+      </c>
+      <c r="E18">
+        <v>-1.7756</v>
+      </c>
+      <c r="F18">
+        <v>2.8144</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>-0.083</v>
+      </c>
+      <c r="L18">
+        <v>0.083</v>
+      </c>
+      <c r="M18">
+        <v>0.51700528</v>
+      </c>
+      <c r="N18">
+        <v>-0.43400528</v>
+      </c>
+      <c r="O18">
+        <v>-0.06510079199999999</v>
+      </c>
+      <c r="P18">
+        <v>-0.368904488</v>
+      </c>
+      <c r="Q18">
+        <v>-0.451904488</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05369870620260153</v>
+      </c>
+      <c r="T18">
+        <v>0.7085090399737161</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.02408099197749006</v>
+      </c>
+      <c r="W18">
+        <v>0.1792763217737351</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.1605399465166004</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07553512469398291</v>
+      </c>
+      <c r="C19">
+        <v>7.880901151226474</v>
+      </c>
+      <c r="D19">
+        <v>10.87120115122647</v>
+      </c>
+      <c r="E19">
+        <v>-1.599699999999999</v>
+      </c>
+      <c r="F19">
+        <v>2.9903</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>-0.083</v>
+      </c>
+      <c r="L19">
+        <v>0.083</v>
+      </c>
+      <c r="M19">
+        <v>0.5493181100000001</v>
+      </c>
+      <c r="N19">
+        <v>-0.4663181100000001</v>
+      </c>
+      <c r="O19">
+        <v>-0.06994771650000001</v>
+      </c>
+      <c r="P19">
+        <v>-0.3963703935</v>
+      </c>
+      <c r="Q19">
+        <v>-0.4793703935</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05423363037371721</v>
+      </c>
+      <c r="T19">
+        <v>0.7170452934673753</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.0226644630376377</v>
+      </c>
+      <c r="W19">
+        <v>0.179536538139986</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.151096420250918</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.0772791246939829</v>
+      </c>
+      <c r="C20">
+        <v>7.426101196378761</v>
+      </c>
+      <c r="D20">
+        <v>10.59230119637876</v>
+      </c>
+      <c r="E20">
+        <v>-1.4238</v>
+      </c>
+      <c r="F20">
+        <v>3.1662</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>-0.083</v>
+      </c>
+      <c r="L20">
+        <v>0.083</v>
+      </c>
+      <c r="M20">
+        <v>0.58163094</v>
+      </c>
+      <c r="N20">
+        <v>-0.49863094</v>
+      </c>
+      <c r="O20">
+        <v>-0.074794641</v>
+      </c>
+      <c r="P20">
+        <v>-0.423836299</v>
+      </c>
+      <c r="Q20">
+        <v>-0.506836299</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.05478160147583572</v>
+      </c>
+      <c r="T20">
+        <v>0.7257897482657578</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.02140532620221338</v>
+      </c>
+      <c r="W20">
+        <v>0.1797678415766534</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.1427021746814225</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.0790231246939829</v>
+      </c>
+      <c r="C21">
+        <v>6.985253614531807</v>
+      </c>
+      <c r="D21">
+        <v>10.32735361453181</v>
+      </c>
+      <c r="E21">
+        <v>-1.2479</v>
+      </c>
+      <c r="F21">
+        <v>3.3421</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-0.083</v>
+      </c>
+      <c r="L21">
+        <v>0.083</v>
+      </c>
+      <c r="M21">
+        <v>0.61394377</v>
+      </c>
+      <c r="N21">
+        <v>-0.53094377</v>
+      </c>
+      <c r="O21">
+        <v>-0.0796415655</v>
+      </c>
+      <c r="P21">
+        <v>-0.4513022045</v>
+      </c>
+      <c r="Q21">
+        <v>-0.5343022045</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05534310272862381</v>
+      </c>
+      <c r="T21">
+        <v>0.7347501155282981</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.02027873008630741</v>
+      </c>
+      <c r="W21">
+        <v>0.1799747972831453</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.1351915339087161</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08076712469398291</v>
+      </c>
+      <c r="C22">
+        <v>6.557336973581648</v>
+      </c>
+      <c r="D22">
+        <v>10.07533697358165</v>
+      </c>
+      <c r="E22">
+        <v>-1.072</v>
+      </c>
+      <c r="F22">
+        <v>3.518</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>-0.083</v>
+      </c>
+      <c r="L22">
+        <v>0.083</v>
+      </c>
+      <c r="M22">
+        <v>0.6462566000000001</v>
+      </c>
+      <c r="N22">
+        <v>-0.5632566000000001</v>
+      </c>
+      <c r="O22">
+        <v>-0.08448849000000001</v>
+      </c>
+      <c r="P22">
+        <v>-0.4787681100000001</v>
+      </c>
+      <c r="Q22">
+        <v>-0.56176811</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05591864151273161</v>
+      </c>
+      <c r="T22">
+        <v>0.7439344919724018</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.01926479358199204</v>
+      </c>
+      <c r="W22">
+        <v>0.1801610574189881</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.1284319572132803</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08251112469398289</v>
+      </c>
+      <c r="C23">
+        <v>6.141427169670381</v>
+      </c>
+      <c r="D23">
+        <v>9.83532716967038</v>
+      </c>
+      <c r="E23">
+        <v>-0.8961000000000001</v>
+      </c>
+      <c r="F23">
+        <v>3.6939</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-0.083</v>
+      </c>
+      <c r="L23">
+        <v>0.083</v>
+      </c>
+      <c r="M23">
+        <v>0.6785694299999999</v>
+      </c>
+      <c r="N23">
+        <v>-0.59556943</v>
+      </c>
+      <c r="O23">
+        <v>-0.08933541449999999</v>
+      </c>
+      <c r="P23">
+        <v>-0.5062340155</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5892340155</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.05650875089896872</v>
+      </c>
+      <c r="T23">
+        <v>0.7533513842758499</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.01834742245904004</v>
+      </c>
+      <c r="W23">
+        <v>0.1803295784942743</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.1223161497269336</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.0842551246939829</v>
+      </c>
+      <c r="C24">
+        <v>5.736686104380523</v>
+      </c>
+      <c r="D24">
+        <v>9.606486104380522</v>
+      </c>
+      <c r="E24">
+        <v>-0.7201999999999997</v>
+      </c>
+      <c r="F24">
+        <v>3.8698</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>-0.083</v>
+      </c>
+      <c r="L24">
+        <v>0.083</v>
+      </c>
+      <c r="M24">
+        <v>0.71088226</v>
+      </c>
+      <c r="N24">
+        <v>-0.62788226</v>
+      </c>
+      <c r="O24">
+        <v>-0.094182339</v>
+      </c>
+      <c r="P24">
+        <v>-0.533699921</v>
+      </c>
+      <c r="Q24">
+        <v>-0.6166999209999999</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.05711399129510934</v>
+      </c>
+      <c r="T24">
+        <v>0.7630097353563096</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.01751344871090186</v>
+      </c>
+      <c r="W24">
+        <v>0.1804827794718073</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.1167563247393457</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08599912469398291</v>
+      </c>
+      <c r="C25">
+        <v>5.342351906690727</v>
+      </c>
+      <c r="D25">
+        <v>9.388051906690727</v>
+      </c>
+      <c r="E25">
+        <v>-0.5442999999999998</v>
+      </c>
+      <c r="F25">
+        <v>4.0457</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-0.083</v>
+      </c>
+      <c r="L25">
+        <v>0.083</v>
+      </c>
+      <c r="M25">
+        <v>0.7431950900000001</v>
+      </c>
+      <c r="N25">
+        <v>-0.6601950900000001</v>
+      </c>
+      <c r="O25">
+        <v>-0.09902926350000001</v>
+      </c>
+      <c r="P25">
+        <v>-0.5611658265000001</v>
+      </c>
+      <c r="Q25">
+        <v>-0.6441658265000001</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.05773495222101985</v>
+      </c>
+      <c r="T25">
+        <v>0.7729189526985992</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.01675199441912352</v>
+      </c>
+      <c r="W25">
+        <v>0.180622658625207</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.1116799627941567</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08774312469398289</v>
+      </c>
+      <c r="C26">
+        <v>4.957730459283566</v>
+      </c>
+      <c r="D26">
+        <v>9.179330459283566</v>
+      </c>
+      <c r="E26">
+        <v>-0.3684000000000003</v>
+      </c>
+      <c r="F26">
+        <v>4.2216</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>-0.083</v>
+      </c>
+      <c r="L26">
+        <v>0.083</v>
+      </c>
+      <c r="M26">
+        <v>0.7755079199999999</v>
+      </c>
+      <c r="N26">
+        <v>-0.6925079199999999</v>
+      </c>
+      <c r="O26">
+        <v>-0.103876188</v>
+      </c>
+      <c r="P26">
+        <v>-0.588631732</v>
+      </c>
+      <c r="Q26">
+        <v>-0.6716317319999999</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.058372254223928</v>
+      </c>
+      <c r="T26">
+        <v>0.7830889389183177</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.01605399465166004</v>
+      </c>
+      <c r="W26">
+        <v>0.1807508811824901</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.1070266310110669</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.0894871246939829</v>
+      </c>
+      <c r="C27">
+        <v>4.582188030625793</v>
+      </c>
+      <c r="D27">
+        <v>8.979688030625793</v>
+      </c>
+      <c r="E27">
+        <v>-0.1924999999999999</v>
+      </c>
+      <c r="F27">
+        <v>4.3975</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>-0.083</v>
+      </c>
+      <c r="L27">
+        <v>0.083</v>
+      </c>
+      <c r="M27">
+        <v>0.80782075</v>
+      </c>
+      <c r="N27">
+        <v>-0.72482075</v>
+      </c>
+      <c r="O27">
+        <v>-0.1087231125</v>
+      </c>
+      <c r="P27">
+        <v>-0.6160976375</v>
+      </c>
+      <c r="Q27">
+        <v>-0.6990976375</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.05902655094691371</v>
+      </c>
+      <c r="T27">
+        <v>0.793530124770562</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.01541183486559364</v>
+      </c>
+      <c r="W27">
+        <v>0.1808688459351905</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.1027455657706242</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.0912311246939829</v>
+      </c>
+      <c r="C28">
+        <v>4.215144848057453</v>
+      </c>
+      <c r="D28">
+        <v>8.788544848057454</v>
+      </c>
+      <c r="E28">
+        <v>-0.0165999999999995</v>
+      </c>
+      <c r="F28">
+        <v>4.5734</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>-0.083</v>
+      </c>
+      <c r="L28">
+        <v>0.083</v>
+      </c>
+      <c r="M28">
+        <v>0.84013358</v>
+      </c>
+      <c r="N28">
+        <v>-0.7571335800000001</v>
+      </c>
+      <c r="O28">
+        <v>-0.113570037</v>
+      </c>
+      <c r="P28">
+        <v>-0.6435635430000001</v>
+      </c>
+      <c r="Q28">
+        <v>-0.726563543</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.05969853136511526</v>
+      </c>
+      <c r="T28">
+        <v>0.804253504835029</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.01481907198614773</v>
+      </c>
+      <c r="W28">
+        <v>0.1809777364761447</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.0987938132409848</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09297512469398289</v>
+      </c>
+      <c r="C29">
+        <v>3.856069474598888</v>
+      </c>
+      <c r="D29">
+        <v>8.605369474598888</v>
+      </c>
+      <c r="E29">
+        <v>0.1593</v>
+      </c>
+      <c r="F29">
+        <v>4.7493</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-0.083</v>
+      </c>
+      <c r="L29">
+        <v>0.083</v>
+      </c>
+      <c r="M29">
+        <v>0.87244641</v>
+      </c>
+      <c r="N29">
+        <v>-0.78944641</v>
+      </c>
+      <c r="O29">
+        <v>-0.1184169615</v>
+      </c>
+      <c r="P29">
+        <v>-0.6710294485</v>
+      </c>
+      <c r="Q29">
+        <v>-0.7540294485</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06038892220573326</v>
+      </c>
+      <c r="T29">
+        <v>0.8152706761341389</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.01427021746814226</v>
+      </c>
+      <c r="W29">
+        <v>0.1810785610511023</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.09513478312094836</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09471912469398289</v>
+      </c>
+      <c r="C30">
+        <v>3.504473874609234</v>
+      </c>
+      <c r="D30">
+        <v>8.429673874609234</v>
+      </c>
+      <c r="E30">
+        <v>0.3352000000000004</v>
+      </c>
+      <c r="F30">
+        <v>4.9252</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>-0.083</v>
+      </c>
+      <c r="L30">
+        <v>0.083</v>
+      </c>
+      <c r="M30">
+        <v>0.9047592400000001</v>
+      </c>
+      <c r="N30">
+        <v>-0.8217592400000001</v>
+      </c>
+      <c r="O30">
+        <v>-0.123263886</v>
+      </c>
+      <c r="P30">
+        <v>-0.6984953540000001</v>
+      </c>
+      <c r="Q30">
+        <v>-0.781495354</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06109849056970178</v>
+      </c>
+      <c r="T30">
+        <v>0.8265938799693353</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.01376056684428003</v>
+      </c>
+      <c r="W30">
+        <v>0.1811721838707057</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.09173711229520021</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.09646312469398291</v>
+      </c>
+      <c r="C31">
+        <v>3.159909071816391</v>
+      </c>
+      <c r="D31">
+        <v>8.261009071816391</v>
+      </c>
+      <c r="E31">
+        <v>0.5110999999999999</v>
+      </c>
+      <c r="F31">
+        <v>5.1011</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>-0.083</v>
+      </c>
+      <c r="L31">
+        <v>0.083</v>
+      </c>
+      <c r="M31">
+        <v>0.9370720699999999</v>
+      </c>
+      <c r="N31">
+        <v>-0.85407207</v>
+      </c>
+      <c r="O31">
+        <v>-0.1281108105</v>
+      </c>
+      <c r="P31">
+        <v>-0.7259612595</v>
+      </c>
+      <c r="Q31">
+        <v>-0.8089612595</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06182804677490886</v>
+      </c>
+      <c r="T31">
+        <v>0.8382360472928472</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.01328606453930486</v>
+      </c>
+      <c r="W31">
+        <v>0.1812593499441297</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.08857376359536573</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.09820712469398288</v>
+      </c>
+      <c r="C32">
+        <v>2.821961318378892</v>
+      </c>
+      <c r="D32">
+        <v>8.098961318378892</v>
+      </c>
+      <c r="E32">
+        <v>0.6870000000000003</v>
+      </c>
+      <c r="F32">
+        <v>5.277</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>-0.083</v>
+      </c>
+      <c r="L32">
+        <v>0.083</v>
+      </c>
+      <c r="M32">
+        <v>0.9693849</v>
+      </c>
+      <c r="N32">
+        <v>-0.8863849</v>
+      </c>
+      <c r="O32">
+        <v>-0.132957735</v>
+      </c>
+      <c r="P32">
+        <v>-0.7534271650000001</v>
+      </c>
+      <c r="Q32">
+        <v>-0.836427165</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06257844744312183</v>
+      </c>
+      <c r="T32">
+        <v>0.8502108479684591</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.01284319572132803</v>
+      </c>
+      <c r="W32">
+        <v>0.181340704945992</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.08562130480885355</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.0999511246939829</v>
+      </c>
+      <c r="C33">
+        <v>2.490248706158863</v>
+      </c>
+      <c r="D33">
+        <v>7.943148706158863</v>
+      </c>
+      <c r="E33">
+        <v>0.8628999999999998</v>
+      </c>
+      <c r="F33">
+        <v>5.4529</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>-0.083</v>
+      </c>
+      <c r="L33">
+        <v>0.083</v>
+      </c>
+      <c r="M33">
+        <v>1.00169773</v>
+      </c>
+      <c r="N33">
+        <v>-0.9186977299999999</v>
+      </c>
+      <c r="O33">
+        <v>-0.1378046595</v>
+      </c>
+      <c r="P33">
+        <v>-0.7808930704999999</v>
+      </c>
+      <c r="Q33">
+        <v>-0.8638930704999999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.063350598855341</v>
+      </c>
+      <c r="T33">
+        <v>0.8625327443158283</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.01242889908515616</v>
+      </c>
+      <c r="W33">
+        <v>0.1814168112380568</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.08285932723437439</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1016951246939829</v>
+      </c>
+      <c r="C34">
+        <v>2.164418161777627</v>
+      </c>
+      <c r="D34">
+        <v>7.793218161777627</v>
+      </c>
+      <c r="E34">
+        <v>1.0388</v>
+      </c>
+      <c r="F34">
+        <v>5.6288</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>-0.083</v>
+      </c>
+      <c r="L34">
+        <v>0.083</v>
+      </c>
+      <c r="M34">
+        <v>1.03401056</v>
+      </c>
+      <c r="N34">
+        <v>-0.9510105600000001</v>
+      </c>
+      <c r="O34">
+        <v>-0.142651584</v>
+      </c>
+      <c r="P34">
+        <v>-0.8083589760000001</v>
+      </c>
+      <c r="Q34">
+        <v>-0.891358976</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06414546060321366</v>
+      </c>
+      <c r="T34">
+        <v>0.8752170493792963</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.01204049598874503</v>
+      </c>
+      <c r="W34">
+        <v>0.1814881608868675</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.0802699732583001</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1034391246939829</v>
+      </c>
+      <c r="C35">
+        <v>1.844142775684739</v>
+      </c>
+      <c r="D35">
+        <v>7.64884277568474</v>
+      </c>
+      <c r="E35">
+        <v>1.214700000000001</v>
+      </c>
+      <c r="F35">
+        <v>5.8047</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>-0.083</v>
+      </c>
+      <c r="L35">
+        <v>0.083</v>
+      </c>
+      <c r="M35">
+        <v>1.06632339</v>
+      </c>
+      <c r="N35">
+        <v>-0.98332339</v>
+      </c>
+      <c r="O35">
+        <v>-0.1474985085</v>
+      </c>
+      <c r="P35">
+        <v>-0.8358248815</v>
+      </c>
+      <c r="Q35">
+        <v>-0.9188248815</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06496404956744073</v>
+      </c>
+      <c r="T35">
+        <v>0.8882799904148082</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.01167563247393457</v>
+      </c>
+      <c r="W35">
+        <v>0.1815551863145382</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.07783754982623048</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1051831246939829</v>
+      </c>
+      <c r="C36">
+        <v>1.529119422713418</v>
+      </c>
+      <c r="D36">
+        <v>7.509719422713419</v>
+      </c>
+      <c r="E36">
+        <v>1.390600000000001</v>
+      </c>
+      <c r="F36">
+        <v>5.980600000000001</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-0.083</v>
+      </c>
+      <c r="L36">
+        <v>0.083</v>
+      </c>
+      <c r="M36">
+        <v>1.09863622</v>
+      </c>
+      <c r="N36">
+        <v>-1.01563622</v>
+      </c>
+      <c r="O36">
+        <v>-0.152345433</v>
+      </c>
+      <c r="P36">
+        <v>-0.8632907870000002</v>
+      </c>
+      <c r="Q36">
+        <v>-0.9462907870000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.06580744425785649</v>
+      </c>
+      <c r="T36">
+        <v>0.9017387781483659</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.01133223151881885</v>
+      </c>
+      <c r="W36">
+        <v>0.181618269069993</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.07554821012545898</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1069271246939829</v>
+      </c>
+      <c r="C37">
+        <v>1.219066637672734</v>
+      </c>
+      <c r="D37">
+        <v>7.375566637672734</v>
+      </c>
+      <c r="E37">
+        <v>1.5665</v>
+      </c>
+      <c r="F37">
+        <v>6.1565</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>-0.083</v>
+      </c>
+      <c r="L37">
+        <v>0.083</v>
+      </c>
+      <c r="M37">
+        <v>1.13094905</v>
+      </c>
+      <c r="N37">
+        <v>-1.04794905</v>
+      </c>
+      <c r="O37">
+        <v>-0.1571923575</v>
+      </c>
+      <c r="P37">
+        <v>-0.8907566925000001</v>
+      </c>
+      <c r="Q37">
+        <v>-0.9737566925000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.0666767895541312</v>
+      </c>
+      <c r="T37">
+        <v>0.9156116824275714</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.01100845347542402</v>
+      </c>
+      <c r="W37">
+        <v>0.1816777470965646</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.07338968983616012</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1086711246939829</v>
+      </c>
+      <c r="C38">
+        <v>0.9137227146446563</v>
+      </c>
+      <c r="D38">
+        <v>7.246122714644656</v>
+      </c>
+      <c r="E38">
+        <v>1.7424</v>
+      </c>
+      <c r="F38">
+        <v>6.3324</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>-0.083</v>
+      </c>
+      <c r="L38">
+        <v>0.083</v>
+      </c>
+      <c r="M38">
+        <v>1.16326188</v>
+      </c>
+      <c r="N38">
+        <v>-1.08026188</v>
+      </c>
+      <c r="O38">
+        <v>-0.162039282</v>
+      </c>
+      <c r="P38">
+        <v>-0.9182225980000001</v>
+      </c>
+      <c r="Q38">
+        <v>-1.001222598</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.06757330189091451</v>
+      </c>
+      <c r="T38">
+        <v>0.9299181149655023</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.01070266310110669</v>
+      </c>
+      <c r="W38">
+        <v>0.1817339207883267</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.07135108734071127</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1104151246939829</v>
+      </c>
+      <c r="C39">
+        <v>0.6128440029772788</v>
+      </c>
+      <c r="D39">
+        <v>7.121144002977279</v>
+      </c>
+      <c r="E39">
+        <v>1.9183</v>
+      </c>
+      <c r="F39">
+        <v>6.5083</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>-0.083</v>
+      </c>
+      <c r="L39">
+        <v>0.083</v>
+      </c>
+      <c r="M39">
+        <v>1.19557471</v>
+      </c>
+      <c r="N39">
+        <v>-1.11257471</v>
+      </c>
+      <c r="O39">
+        <v>-0.1668862065</v>
+      </c>
+      <c r="P39">
+        <v>-0.9456885035000001</v>
+      </c>
+      <c r="Q39">
+        <v>-1.0286885035</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.06849827493680204</v>
+      </c>
+      <c r="T39">
+        <v>0.9446787199649547</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.01041340193621192</v>
+      </c>
+      <c r="W39">
+        <v>0.1817870580643179</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.06942267957474613</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1121591246939829</v>
+      </c>
+      <c r="C40">
+        <v>0.31620337662895</v>
+      </c>
+      <c r="D40">
+        <v>7.00040337662895</v>
+      </c>
+      <c r="E40">
+        <v>2.0942</v>
+      </c>
+      <c r="F40">
+        <v>6.6842</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>-0.083</v>
+      </c>
+      <c r="L40">
+        <v>0.083</v>
+      </c>
+      <c r="M40">
+        <v>1.22788754</v>
+      </c>
+      <c r="N40">
+        <v>-1.14488754</v>
+      </c>
+      <c r="O40">
+        <v>-0.171733131</v>
+      </c>
+      <c r="P40">
+        <v>-0.9731544090000001</v>
+      </c>
+      <c r="Q40">
+        <v>-1.056154409</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.06945308582287948</v>
+      </c>
+      <c r="T40">
+        <v>0.9599154735127765</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.01013936504315371</v>
+      </c>
+      <c r="W40">
+        <v>0.1818373986415727</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.06759576695435798</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1139031246939829</v>
+      </c>
+      <c r="C41">
+        <v>0.02358885663198507</v>
+      </c>
+      <c r="D41">
+        <v>6.883688856631985</v>
+      </c>
+      <c r="E41">
+        <v>2.2701</v>
+      </c>
+      <c r="F41">
+        <v>6.8601</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>-0.083</v>
+      </c>
+      <c r="L41">
+        <v>0.083</v>
+      </c>
+      <c r="M41">
+        <v>1.26020037</v>
+      </c>
+      <c r="N41">
+        <v>-1.17720037</v>
+      </c>
+      <c r="O41">
+        <v>-0.1765800555</v>
+      </c>
+      <c r="P41">
+        <v>-1.0006203145</v>
+      </c>
+      <c r="Q41">
+        <v>-1.0836203145</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.07043920198391031</v>
+      </c>
+      <c r="T41">
+        <v>0.9756517927506909</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.009879381324098485</v>
+      </c>
+      <c r="W41">
+        <v>0.1818851576507631</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.06586254216065657</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1156471246939829</v>
+      </c>
+      <c r="C42">
+        <v>-0.2651976309012829</v>
+      </c>
+      <c r="D42">
+        <v>6.770802369098718</v>
+      </c>
+      <c r="E42">
+        <v>2.446000000000001</v>
+      </c>
+      <c r="F42">
+        <v>7.036</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>13</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>-0.083</v>
+      </c>
+      <c r="L42">
+        <v>0.083</v>
+      </c>
+      <c r="M42">
+        <v>1.2925132</v>
+      </c>
+      <c r="N42">
+        <v>-1.2095132</v>
+      </c>
+      <c r="O42">
+        <v>-0.18142698</v>
+      </c>
+      <c r="P42">
+        <v>-1.02808622</v>
+      </c>
+      <c r="Q42">
+        <v>-1.11108622</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07145818868364215</v>
+      </c>
+      <c r="T42">
+        <v>0.9919126559632025</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.009632396790996022</v>
+      </c>
+      <c r="W42">
+        <v>0.181930528709494</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.06421597860664008</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1173911246939829</v>
+      </c>
+      <c r="C43">
+        <v>-0.5503413765384826</v>
+      </c>
+      <c r="D43">
+        <v>6.661558623461518</v>
+      </c>
+      <c r="E43">
+        <v>2.621900000000001</v>
+      </c>
+      <c r="F43">
+        <v>7.211900000000001</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>-0.083</v>
+      </c>
+      <c r="L43">
+        <v>0.083</v>
+      </c>
+      <c r="M43">
+        <v>1.32482603</v>
+      </c>
+      <c r="N43">
+        <v>-1.24182603</v>
+      </c>
+      <c r="O43">
+        <v>-0.1862739045</v>
+      </c>
+      <c r="P43">
+        <v>-1.0555521255</v>
+      </c>
+      <c r="Q43">
+        <v>-1.1385521255</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.07251171730539879</v>
+      </c>
+      <c r="T43">
+        <v>1.008724734877833</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.009397460283898559</v>
+      </c>
+      <c r="W43">
+        <v>0.1819736865458478</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.06264973522599038</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1191351246939829</v>
+      </c>
+      <c r="C44">
+        <v>-0.8320159024170257</v>
+      </c>
+      <c r="D44">
+        <v>6.555784097582974</v>
+      </c>
+      <c r="E44">
+        <v>2.7978</v>
+      </c>
+      <c r="F44">
+        <v>7.387799999999999</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>-0.083</v>
+      </c>
+      <c r="L44">
+        <v>0.083</v>
+      </c>
+      <c r="M44">
+        <v>1.35713886</v>
+      </c>
+      <c r="N44">
+        <v>-1.27413886</v>
+      </c>
+      <c r="O44">
+        <v>-0.191120829</v>
+      </c>
+      <c r="P44">
+        <v>-1.083018031</v>
+      </c>
+      <c r="Q44">
+        <v>-1.166018031</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.07360157450031946</v>
+      </c>
+      <c r="T44">
+        <v>1.026116540651589</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.009173711229520022</v>
+      </c>
+      <c r="W44">
+        <v>0.1820147892471372</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.0611580748634668</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1208791246939829</v>
+      </c>
+      <c r="C45">
+        <v>-1.110383881956583</v>
+      </c>
+      <c r="D45">
+        <v>6.453316118043417</v>
+      </c>
+      <c r="E45">
+        <v>2.9737</v>
+      </c>
+      <c r="F45">
+        <v>7.5637</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>-0.083</v>
+      </c>
+      <c r="L45">
+        <v>0.083</v>
+      </c>
+      <c r="M45">
+        <v>1.38945169</v>
+      </c>
+      <c r="N45">
+        <v>-1.30645169</v>
+      </c>
+      <c r="O45">
+        <v>-0.1959677535</v>
+      </c>
+      <c r="P45">
+        <v>-1.1104839365</v>
+      </c>
+      <c r="Q45">
+        <v>-1.1934839365</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.07472967229857067</v>
+      </c>
+      <c r="T45">
+        <v>1.044118585224423</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.008960369107903278</v>
+      </c>
+      <c r="W45">
+        <v>0.1820539801948782</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.05973579405268847</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1226231246939829</v>
+      </c>
+      <c r="C46">
+        <v>-1.38559797464737</v>
+      </c>
+      <c r="D46">
+        <v>6.354002025352631</v>
+      </c>
+      <c r="E46">
+        <v>3.1496</v>
+      </c>
+      <c r="F46">
+        <v>7.7396</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>-0.083</v>
+      </c>
+      <c r="L46">
+        <v>0.083</v>
+      </c>
+      <c r="M46">
+        <v>1.42176452</v>
+      </c>
+      <c r="N46">
+        <v>-1.33876452</v>
+      </c>
+      <c r="O46">
+        <v>-0.200814678</v>
+      </c>
+      <c r="P46">
+        <v>-1.137949842</v>
+      </c>
+      <c r="Q46">
+        <v>-1.220949842</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.0758980593039023</v>
+      </c>
+      <c r="T46">
+        <v>1.062763559960574</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.00875672435545093</v>
+      </c>
+      <c r="W46">
+        <v>0.1820913897359037</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.05837816236967286</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1243671246939829</v>
+      </c>
+      <c r="C47">
+        <v>-1.657801584924289</v>
+      </c>
+      <c r="D47">
+        <v>6.257698415075711</v>
+      </c>
+      <c r="E47">
+        <v>3.3255</v>
+      </c>
+      <c r="F47">
+        <v>7.9155</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>-0.083</v>
+      </c>
+      <c r="L47">
+        <v>0.083</v>
+      </c>
+      <c r="M47">
+        <v>1.45407735</v>
+      </c>
+      <c r="N47">
+        <v>-1.37107735</v>
+      </c>
+      <c r="O47">
+        <v>-0.2056616025</v>
+      </c>
+      <c r="P47">
+        <v>-1.1654157475</v>
+      </c>
+      <c r="Q47">
+        <v>-1.2484157475</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.07710893310942779</v>
+      </c>
+      <c r="T47">
+        <v>1.082086533778039</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.008562130480885354</v>
+      </c>
+      <c r="W47">
+        <v>0.1821271366306614</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.057080869872569</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1261111246939829</v>
+      </c>
+      <c r="C48">
+        <v>-1.927129553060738</v>
+      </c>
+      <c r="D48">
+        <v>6.164270446939263</v>
+      </c>
+      <c r="E48">
+        <v>3.5014</v>
+      </c>
+      <c r="F48">
+        <v>8.0914</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-0.083</v>
+      </c>
+      <c r="L48">
+        <v>0.083</v>
+      </c>
+      <c r="M48">
+        <v>1.48639018</v>
+      </c>
+      <c r="N48">
+        <v>-1.40339018</v>
+      </c>
+      <c r="O48">
+        <v>-0.210508527</v>
+      </c>
+      <c r="P48">
+        <v>-1.192881653</v>
+      </c>
+      <c r="Q48">
+        <v>-1.275881653</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.07836465409293572</v>
+      </c>
+      <c r="T48">
+        <v>1.102125173292447</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.008375997209561758</v>
+      </c>
+      <c r="W48">
+        <v>0.1821613293126035</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.05583998139707835</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1278551246939829</v>
+      </c>
+      <c r="C49">
+        <v>-2.193708785082225</v>
+      </c>
+      <c r="D49">
+        <v>6.073591214917776</v>
+      </c>
+      <c r="E49">
+        <v>3.677300000000001</v>
+      </c>
+      <c r="F49">
+        <v>8.267300000000001</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>13</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>-0.083</v>
+      </c>
+      <c r="L49">
+        <v>0.083</v>
+      </c>
+      <c r="M49">
+        <v>1.51870301</v>
+      </c>
+      <c r="N49">
+        <v>-1.43570301</v>
+      </c>
+      <c r="O49">
+        <v>-0.2153554515</v>
+      </c>
+      <c r="P49">
+        <v>-1.2203475585</v>
+      </c>
+      <c r="Q49">
+        <v>-1.3033475585</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.0796677607739345</v>
+      </c>
+      <c r="T49">
+        <v>1.122919987882871</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.008197784502975338</v>
+      </c>
+      <c r="W49">
+        <v>0.1821940669868034</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.05465189668650228</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1295991246939829</v>
+      </c>
+      <c r="C50">
+        <v>-2.457658827888117</v>
+      </c>
+      <c r="D50">
+        <v>5.985541172111883</v>
+      </c>
+      <c r="E50">
+        <v>3.853199999999999</v>
+      </c>
+      <c r="F50">
+        <v>8.443199999999999</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>-0.083</v>
+      </c>
+      <c r="L50">
+        <v>0.083</v>
+      </c>
+      <c r="M50">
+        <v>1.55101584</v>
+      </c>
+      <c r="N50">
+        <v>-1.46801584</v>
+      </c>
+      <c r="O50">
+        <v>-0.220202376</v>
+      </c>
+      <c r="P50">
+        <v>-1.247813464</v>
+      </c>
+      <c r="Q50">
+        <v>-1.330813464</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.08102098694266402</v>
+      </c>
+      <c r="T50">
+        <v>1.144514603034464</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.00802699732583002</v>
+      </c>
+      <c r="W50">
+        <v>0.182225440591245</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.0535133155055334</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1313431246939829</v>
+      </c>
+      <c r="C51">
+        <v>-2.719092395062325</v>
+      </c>
+      <c r="D51">
+        <v>5.900007604937675</v>
+      </c>
+      <c r="E51">
+        <v>4.0291</v>
+      </c>
+      <c r="F51">
+        <v>8.6191</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>13</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>-0.083</v>
+      </c>
+      <c r="L51">
+        <v>0.083</v>
+      </c>
+      <c r="M51">
+        <v>1.58332867</v>
+      </c>
+      <c r="N51">
+        <v>-1.50032867</v>
+      </c>
+      <c r="O51">
+        <v>-0.2250493005</v>
+      </c>
+      <c r="P51">
+        <v>-1.2752793695</v>
+      </c>
+      <c r="Q51">
+        <v>-1.3582793695</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.08242728080428487</v>
+      </c>
+      <c r="T51">
+        <v>1.166956065839061</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.007863181053874305</v>
+      </c>
+      <c r="W51">
+        <v>0.1822555336404033</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.05242120702582864</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1330871246939829</v>
+      </c>
+      <c r="C52">
+        <v>-2.978115848236057</v>
+      </c>
+      <c r="D52">
+        <v>5.816884151763943</v>
+      </c>
+      <c r="E52">
+        <v>4.205</v>
+      </c>
+      <c r="F52">
+        <v>8.795</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>-0.083</v>
+      </c>
+      <c r="L52">
+        <v>0.083</v>
+      </c>
+      <c r="M52">
+        <v>1.6156415</v>
+      </c>
+      <c r="N52">
+        <v>-1.5326415</v>
+      </c>
+      <c r="O52">
+        <v>-0.229896225</v>
+      </c>
+      <c r="P52">
+        <v>-1.302745275</v>
+      </c>
+      <c r="Q52">
+        <v>-1.385745275</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.08388982642037056</v>
+      </c>
+      <c r="T52">
+        <v>1.190295187155843</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.007705917432796818</v>
+      </c>
+      <c r="W52">
+        <v>0.1822844229675952</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.05137278288531211</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1348311246939829</v>
+      </c>
+      <c r="C53">
+        <v>-3.234829638325222</v>
+      </c>
+      <c r="D53">
+        <v>5.736070361674778</v>
+      </c>
+      <c r="E53">
+        <v>4.3809</v>
+      </c>
+      <c r="F53">
+        <v>8.9709</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>-0.083</v>
+      </c>
+      <c r="L53">
+        <v>0.083</v>
+      </c>
+      <c r="M53">
+        <v>1.64795433</v>
+      </c>
+      <c r="N53">
+        <v>-1.56495433</v>
+      </c>
+      <c r="O53">
+        <v>-0.2347431495</v>
+      </c>
+      <c r="P53">
+        <v>-1.3302111805</v>
+      </c>
+      <c r="Q53">
+        <v>-1.4132111805</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.08541206777588835</v>
+      </c>
+      <c r="T53">
+        <v>1.214586925669228</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.0075548210125459</v>
+      </c>
+      <c r="W53">
+        <v>0.1823121793799953</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.05036547341697262</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1365751246939829</v>
+      </c>
+      <c r="C54">
+        <v>-3.489328710491239</v>
+      </c>
+      <c r="D54">
+        <v>5.657471289508762</v>
+      </c>
+      <c r="E54">
+        <v>4.556800000000001</v>
+      </c>
+      <c r="F54">
+        <v>9.146800000000001</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>13</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>-0.083</v>
+      </c>
+      <c r="L54">
+        <v>0.083</v>
+      </c>
+      <c r="M54">
+        <v>1.68026716</v>
+      </c>
+      <c r="N54">
+        <v>-1.59726716</v>
+      </c>
+      <c r="O54">
+        <v>-0.239590074</v>
+      </c>
+      <c r="P54">
+        <v>-1.357677086</v>
+      </c>
+      <c r="Q54">
+        <v>-1.440677086</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.08699773585455269</v>
+      </c>
+      <c r="T54">
+        <v>1.239890819954003</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.007409535993073863</v>
+      </c>
+      <c r="W54">
+        <v>0.1823388682380724</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.04939690662049234</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1383191246939829</v>
+      </c>
+      <c r="C55">
+        <v>-3.74170287625779</v>
+      </c>
+      <c r="D55">
+        <v>5.580997123742211</v>
+      </c>
+      <c r="E55">
+        <v>4.732700000000001</v>
+      </c>
+      <c r="F55">
+        <v>9.322700000000001</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>13</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>-0.083</v>
+      </c>
+      <c r="L55">
+        <v>0.083</v>
+      </c>
+      <c r="M55">
+        <v>1.71257999</v>
+      </c>
+      <c r="N55">
+        <v>-1.62957999</v>
+      </c>
+      <c r="O55">
+        <v>-0.2444369985</v>
+      </c>
+      <c r="P55">
+        <v>-1.3851429915</v>
+      </c>
+      <c r="Q55">
+        <v>-1.4681429915</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.08865087917060699</v>
+      </c>
+      <c r="T55">
+        <v>1.266271475697705</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.007269733427166808</v>
+      </c>
+      <c r="W55">
+        <v>0.1823645499694294</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.04846488951444539</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1400631246939829</v>
+      </c>
+      <c r="C56">
+        <v>-3.992037155849873</v>
+      </c>
+      <c r="D56">
+        <v>5.506562844150126</v>
+      </c>
+      <c r="E56">
+        <v>4.9086</v>
+      </c>
+      <c r="F56">
+        <v>9.4986</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>-0.083</v>
+      </c>
+      <c r="L56">
+        <v>0.083</v>
+      </c>
+      <c r="M56">
+        <v>1.74489282</v>
+      </c>
+      <c r="N56">
+        <v>-1.66189282</v>
+      </c>
+      <c r="O56">
+        <v>-0.249283923</v>
+      </c>
+      <c r="P56">
+        <v>-1.412608897</v>
+      </c>
+      <c r="Q56">
+        <v>-1.495608897</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.09037589828301151</v>
+      </c>
+      <c r="T56">
+        <v>1.293799116473743</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.007135108734071128</v>
+      </c>
+      <c r="W56">
+        <v>0.1823892805255511</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.04756739156047418</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1418071246939829</v>
+      </c>
+      <c r="C57">
+        <v>-4.240412093498519</v>
+      </c>
+      <c r="D57">
+        <v>5.434087906501481</v>
+      </c>
+      <c r="E57">
+        <v>5.0845</v>
+      </c>
+      <c r="F57">
+        <v>9.6745</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>13</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>-0.083</v>
+      </c>
+      <c r="L57">
+        <v>0.083</v>
+      </c>
+      <c r="M57">
+        <v>1.77720565</v>
+      </c>
+      <c r="N57">
+        <v>-1.69420565</v>
+      </c>
+      <c r="O57">
+        <v>-0.2541308475</v>
+      </c>
+      <c r="P57">
+        <v>-1.4400748025</v>
+      </c>
+      <c r="Q57">
+        <v>-1.5230748025</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09217758491152286</v>
+      </c>
+      <c r="T57">
+        <v>1.322550207950937</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.007005379484360744</v>
+      </c>
+      <c r="W57">
+        <v>0.1824131117887229</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.04670252989573831</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1435511246939829</v>
+      </c>
+      <c r="C58">
+        <v>-4.486904048169598</v>
+      </c>
+      <c r="D58">
+        <v>5.363495951830402</v>
+      </c>
+      <c r="E58">
+        <v>5.260400000000001</v>
+      </c>
+      <c r="F58">
+        <v>9.8504</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>13</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>-0.083</v>
+      </c>
+      <c r="L58">
+        <v>0.083</v>
+      </c>
+      <c r="M58">
+        <v>1.80951848</v>
+      </c>
+      <c r="N58">
+        <v>-1.72651848</v>
+      </c>
+      <c r="O58">
+        <v>-0.258977772</v>
+      </c>
+      <c r="P58">
+        <v>-1.467540708</v>
+      </c>
+      <c r="Q58">
+        <v>-1.550540708</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.09406116638678476</v>
+      </c>
+      <c r="T58">
+        <v>1.352608167222549</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.006880283422140016</v>
+      </c>
+      <c r="W58">
+        <v>0.1824360919353529</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.0458685561476001</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1452951246939829</v>
+      </c>
+      <c r="C59">
+        <v>-4.731585461922778</v>
+      </c>
+      <c r="D59">
+        <v>5.294714538077223</v>
+      </c>
+      <c r="E59">
+        <v>5.436300000000001</v>
+      </c>
+      <c r="F59">
+        <v>10.0263</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>13</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>-0.083</v>
+      </c>
+      <c r="L59">
+        <v>0.083</v>
+      </c>
+      <c r="M59">
+        <v>1.84183131</v>
+      </c>
+      <c r="N59">
+        <v>-1.75883131</v>
+      </c>
+      <c r="O59">
+        <v>-0.2638246965</v>
+      </c>
+      <c r="P59">
+        <v>-1.4950066135</v>
+      </c>
+      <c r="Q59">
+        <v>-1.5780066135</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.0960323563027565</v>
+      </c>
+      <c r="T59">
+        <v>1.384064171111445</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.006759576695435805</v>
+      </c>
+      <c r="W59">
+        <v>0.1824582657610485</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.04506384463623869</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1470391246939829</v>
+      </c>
+      <c r="C60">
+        <v>-4.97452510788337</v>
+      </c>
+      <c r="D60">
+        <v>5.22767489211663</v>
+      </c>
+      <c r="E60">
+        <v>5.6122</v>
+      </c>
+      <c r="F60">
+        <v>10.2022</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>13</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>-0.083</v>
+      </c>
+      <c r="L60">
+        <v>0.083</v>
+      </c>
+      <c r="M60">
+        <v>1.87414414</v>
+      </c>
+      <c r="N60">
+        <v>-1.79114414</v>
+      </c>
+      <c r="O60">
+        <v>-0.268671621</v>
+      </c>
+      <c r="P60">
+        <v>-1.522472519</v>
+      </c>
+      <c r="Q60">
+        <v>-1.605472519</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.09809741240520306</v>
+      </c>
+      <c r="T60">
+        <v>1.417018079947432</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.00664303226965243</v>
+      </c>
+      <c r="W60">
+        <v>0.1824796749720649</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.04428688179768281</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1487831246939829</v>
+      </c>
+      <c r="C61">
+        <v>-5.215788319611338</v>
+      </c>
+      <c r="D61">
+        <v>5.162311680388662</v>
+      </c>
+      <c r="E61">
+        <v>5.7881</v>
+      </c>
+      <c r="F61">
+        <v>10.3781</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>13</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>-0.083</v>
+      </c>
+      <c r="L61">
+        <v>0.083</v>
+      </c>
+      <c r="M61">
+        <v>1.90645697</v>
+      </c>
+      <c r="N61">
+        <v>-1.82345697</v>
+      </c>
+      <c r="O61">
+        <v>-0.2735185455</v>
+      </c>
+      <c r="P61">
+        <v>-1.5499384245</v>
+      </c>
+      <c r="Q61">
+        <v>-1.6329384245</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1002632029516714</v>
+      </c>
+      <c r="T61">
+        <v>1.451579496531515</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.006530438502370184</v>
+      </c>
+      <c r="W61">
+        <v>0.1825003584471146</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.04353625668246786</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1505271246939829</v>
+      </c>
+      <c r="C62">
+        <v>-5.455437203475582</v>
+      </c>
+      <c r="D62">
+        <v>5.098562796524418</v>
+      </c>
+      <c r="E62">
+        <v>5.964</v>
+      </c>
+      <c r="F62">
+        <v>10.554</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>13</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>-0.083</v>
+      </c>
+      <c r="L62">
+        <v>0.083</v>
+      </c>
+      <c r="M62">
+        <v>1.9387698</v>
+      </c>
+      <c r="N62">
+        <v>-1.8557698</v>
+      </c>
+      <c r="O62">
+        <v>-0.27836547</v>
+      </c>
+      <c r="P62">
+        <v>-1.57740433</v>
+      </c>
+      <c r="Q62">
+        <v>-1.66040433</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1025372830254632</v>
+      </c>
+      <c r="T62">
+        <v>1.487868983944803</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.006421597860664015</v>
+      </c>
+      <c r="W62">
+        <v>0.182520352472996</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.04281065240442672</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1522711246939829</v>
+      </c>
+      <c r="C63">
+        <v>-5.69353083548464</v>
+      </c>
+      <c r="D63">
+        <v>5.036369164515359</v>
+      </c>
+      <c r="E63">
+        <v>6.139899999999999</v>
+      </c>
+      <c r="F63">
+        <v>10.7299</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>13</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>-0.083</v>
+      </c>
+      <c r="L63">
+        <v>0.083</v>
+      </c>
+      <c r="M63">
+        <v>1.97108263</v>
+      </c>
+      <c r="N63">
+        <v>-1.88808263</v>
+      </c>
+      <c r="O63">
+        <v>-0.2832123945</v>
+      </c>
+      <c r="P63">
+        <v>-1.6048702355</v>
+      </c>
+      <c r="Q63">
+        <v>-1.6878702355</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1049279825902187</v>
+      </c>
+      <c r="T63">
+        <v>1.526019470712619</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.006316325764587557</v>
+      </c>
+      <c r="W63">
+        <v>0.1825396909570453</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.04210883843058366</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1540151246939829</v>
+      </c>
+      <c r="C64">
+        <v>-5.930125443885028</v>
+      </c>
+      <c r="D64">
+        <v>4.975674556114972</v>
+      </c>
+      <c r="E64">
+        <v>6.315799999999999</v>
+      </c>
+      <c r="F64">
+        <v>10.9058</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>13</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>-0.083</v>
+      </c>
+      <c r="L64">
+        <v>0.083</v>
+      </c>
+      <c r="M64">
+        <v>2.00339546</v>
+      </c>
+      <c r="N64">
+        <v>-1.92039546</v>
+      </c>
+      <c r="O64">
+        <v>-0.2880593189999999</v>
+      </c>
+      <c r="P64">
+        <v>-1.632336141</v>
+      </c>
+      <c r="Q64">
+        <v>-1.715336141</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.107444508447856</v>
+      </c>
+      <c r="T64">
+        <v>1.566177877836635</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.00621444954257808</v>
+      </c>
+      <c r="W64">
+        <v>0.1825584056190284</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.04142966361718714</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1557591246939829</v>
+      </c>
+      <c r="C65">
+        <v>-6.165274578713574</v>
+      </c>
+      <c r="D65">
+        <v>4.916425421286426</v>
+      </c>
+      <c r="E65">
+        <v>6.4917</v>
+      </c>
+      <c r="F65">
+        <v>11.0817</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>13</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>-0.083</v>
+      </c>
+      <c r="L65">
+        <v>0.083</v>
+      </c>
+      <c r="M65">
+        <v>2.03570829</v>
+      </c>
+      <c r="N65">
+        <v>-1.95270829</v>
+      </c>
+      <c r="O65">
+        <v>-0.2929062435</v>
+      </c>
+      <c r="P65">
+        <v>-1.6598020465</v>
+      </c>
+      <c r="Q65">
+        <v>-1.7428020465</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1100970627302305</v>
+      </c>
+      <c r="T65">
+        <v>1.608507009670058</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.00611580748634668</v>
+      </c>
+      <c r="W65">
+        <v>0.1825765261647581</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.04077204990897787</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1575031246939829</v>
+      </c>
+      <c r="C66">
+        <v>-6.39902926937835</v>
+      </c>
+      <c r="D66">
+        <v>4.85857073062165</v>
+      </c>
+      <c r="E66">
+        <v>6.6676</v>
+      </c>
+      <c r="F66">
+        <v>11.2576</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>13</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>-0.083</v>
+      </c>
+      <c r="L66">
+        <v>0.083</v>
+      </c>
+      <c r="M66">
+        <v>2.06802112</v>
+      </c>
+      <c r="N66">
+        <v>-1.98502112</v>
+      </c>
+      <c r="O66">
+        <v>-0.297753168</v>
+      </c>
+      <c r="P66">
+        <v>-1.687267952</v>
+      </c>
+      <c r="Q66">
+        <v>-1.770267952</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1128969811394036</v>
+      </c>
+      <c r="T66">
+        <v>1.653187759938671</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.006020247994372514</v>
+      </c>
+      <c r="W66">
+        <v>0.1825940804434338</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.04013498662915005</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1592471246939829</v>
+      </c>
+      <c r="C67">
+        <v>-6.631438171242904</v>
+      </c>
+      <c r="D67">
+        <v>4.802061828757097</v>
+      </c>
+      <c r="E67">
+        <v>6.843500000000001</v>
+      </c>
+      <c r="F67">
+        <v>11.4335</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>13</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>-0.083</v>
+      </c>
+      <c r="L67">
+        <v>0.083</v>
+      </c>
+      <c r="M67">
+        <v>2.10033395</v>
+      </c>
+      <c r="N67">
+        <v>-2.01733395</v>
+      </c>
+      <c r="O67">
+        <v>-0.3026000925</v>
+      </c>
+      <c r="P67">
+        <v>-1.7147338575</v>
+      </c>
+      <c r="Q67">
+        <v>-1.7977338575</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1158568948862437</v>
+      </c>
+      <c r="T67">
+        <v>1.700421695936918</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.005927628794459091</v>
+      </c>
+      <c r="W67">
+        <v>0.1826110945904579</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.03951752529639407</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1609911246939829</v>
+      </c>
+      <c r="C68">
+        <v>-6.862547702098761</v>
+      </c>
+      <c r="D68">
+        <v>4.74685229790124</v>
+      </c>
+      <c r="E68">
+        <v>7.019400000000001</v>
+      </c>
+      <c r="F68">
+        <v>11.6094</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>13</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>-0.083</v>
+      </c>
+      <c r="L68">
+        <v>0.083</v>
+      </c>
+      <c r="M68">
+        <v>2.13264678</v>
+      </c>
+      <c r="N68">
+        <v>-2.04964678</v>
+      </c>
+      <c r="O68">
+        <v>-0.3074470169999999</v>
+      </c>
+      <c r="P68">
+        <v>-1.742199763</v>
+      </c>
+      <c r="Q68">
+        <v>-1.825199763</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1189909212064273</v>
+      </c>
+      <c r="T68">
+        <v>1.750434098758593</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.005837816236967287</v>
+      </c>
+      <c r="W68">
+        <v>0.1826275931572691</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.03891877491311535</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1627351246939829</v>
+      </c>
+      <c r="C69">
+        <v>-7.092402169330766</v>
+      </c>
+      <c r="D69">
+        <v>4.692897830669235</v>
+      </c>
+      <c r="E69">
+        <v>7.195300000000001</v>
+      </c>
+      <c r="F69">
+        <v>11.7853</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>13</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>-0.083</v>
+      </c>
+      <c r="L69">
+        <v>0.083</v>
+      </c>
+      <c r="M69">
+        <v>2.16495961</v>
+      </c>
+      <c r="N69">
+        <v>-2.08195961</v>
+      </c>
+      <c r="O69">
+        <v>-0.3122939415</v>
+      </c>
+      <c r="P69">
+        <v>-1.7696656685</v>
+      </c>
+      <c r="Q69">
+        <v>-1.8526656685</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.122314888515713</v>
+      </c>
+      <c r="T69">
+        <v>1.803477556296732</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.005750684651340908</v>
+      </c>
+      <c r="W69">
+        <v>0.1826435992295487</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.03833789767560614</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1644791246939829</v>
+      </c>
+      <c r="C70">
+        <v>-7.321043888507409</v>
+      </c>
+      <c r="D70">
+        <v>4.640156111492593</v>
+      </c>
+      <c r="E70">
+        <v>7.371200000000002</v>
+      </c>
+      <c r="F70">
+        <v>11.9612</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>13</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>-0.083</v>
+      </c>
+      <c r="L70">
+        <v>0.083</v>
+      </c>
+      <c r="M70">
+        <v>2.19727244</v>
+      </c>
+      <c r="N70">
+        <v>-2.11427244</v>
+      </c>
+      <c r="O70">
+        <v>-0.317140866</v>
+      </c>
+      <c r="P70">
+        <v>-1.797131574</v>
+      </c>
+      <c r="Q70">
+        <v>-1.880131574</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.125846603781829</v>
+      </c>
+      <c r="T70">
+        <v>1.859836229931005</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.005666115759409424</v>
+      </c>
+      <c r="W70">
+        <v>0.1826591345349965</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.0377741050627296</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1662231246939829</v>
+      </c>
+      <c r="C71">
+        <v>-7.548513294063305</v>
+      </c>
+      <c r="D71">
+        <v>4.588586705936695</v>
+      </c>
+      <c r="E71">
+        <v>7.5471</v>
+      </c>
+      <c r="F71">
+        <v>12.1371</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>13</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>-0.083</v>
+      </c>
+      <c r="L71">
+        <v>0.083</v>
+      </c>
+      <c r="M71">
+        <v>2.22958527</v>
+      </c>
+      <c r="N71">
+        <v>-2.14658527</v>
+      </c>
+      <c r="O71">
+        <v>-0.3219877905</v>
+      </c>
+      <c r="P71">
+        <v>-1.8245974795</v>
+      </c>
+      <c r="Q71">
+        <v>-1.9075974795</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.129606171645759</v>
+      </c>
+      <c r="T71">
+        <v>1.919830947025553</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.005583998139707839</v>
+      </c>
+      <c r="W71">
+        <v>0.1826742195417357</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.03722665426471905</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1679671246939829</v>
+      </c>
+      <c r="C72">
+        <v>-7.774849042682233</v>
+      </c>
+      <c r="D72">
+        <v>4.538150957317767</v>
+      </c>
+      <c r="E72">
+        <v>7.723000000000001</v>
+      </c>
+      <c r="F72">
+        <v>12.313</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>13</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>-0.083</v>
+      </c>
+      <c r="L72">
+        <v>0.083</v>
+      </c>
+      <c r="M72">
+        <v>2.2618981</v>
+      </c>
+      <c r="N72">
+        <v>-2.1788981</v>
+      </c>
+      <c r="O72">
+        <v>-0.326834715</v>
+      </c>
+      <c r="P72">
+        <v>-1.852063385</v>
+      </c>
+      <c r="Q72">
+        <v>-1.935063385</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1336163773672843</v>
+      </c>
+      <c r="T72">
+        <v>1.983825311926405</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.005504226737712012</v>
+      </c>
+      <c r="W72">
+        <v>0.1826888735482823</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.03669484491808017</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1697111246939829</v>
+      </c>
+      <c r="C73">
+        <v>-8.000088109936208</v>
+      </c>
+      <c r="D73">
+        <v>4.488811890063791</v>
+      </c>
+      <c r="E73">
+        <v>7.898899999999999</v>
+      </c>
+      <c r="F73">
+        <v>12.4889</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>13</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>-0.083</v>
+      </c>
+      <c r="L73">
+        <v>0.083</v>
+      </c>
+      <c r="M73">
+        <v>2.29421093</v>
+      </c>
+      <c r="N73">
+        <v>-2.21121093</v>
+      </c>
+      <c r="O73">
+        <v>-0.3316816394999999</v>
+      </c>
+      <c r="P73">
+        <v>-1.8795292905</v>
+      </c>
+      <c r="Q73">
+        <v>-1.9625292905</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1379031490006389</v>
+      </c>
+      <c r="T73">
+        <v>2.052233081303177</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.005426702417462548</v>
+      </c>
+      <c r="W73">
+        <v>0.1827031147659121</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.03617801611641702</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1714551246939829</v>
+      </c>
+      <c r="C74">
+        <v>-8.224265880688414</v>
+      </c>
+      <c r="D74">
+        <v>4.440534119311587</v>
+      </c>
+      <c r="E74">
+        <v>8.0748</v>
+      </c>
+      <c r="F74">
+        <v>12.6648</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>13</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>-0.083</v>
+      </c>
+      <c r="L74">
+        <v>0.083</v>
+      </c>
+      <c r="M74">
+        <v>2.32652376</v>
+      </c>
+      <c r="N74">
+        <v>-2.24352376</v>
+      </c>
+      <c r="O74">
+        <v>-0.336528564</v>
+      </c>
+      <c r="P74">
+        <v>-1.906995196</v>
+      </c>
+      <c r="Q74">
+        <v>-1.989995196</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1424961186078046</v>
+      </c>
+      <c r="T74">
+        <v>2.125527119921148</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.005351331550553345</v>
+      </c>
+      <c r="W74">
+        <v>0.1827169603941634</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.03567554367035575</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1731991246939829</v>
+      </c>
+      <c r="C75">
+        <v>-8.447416233724397</v>
+      </c>
+      <c r="D75">
+        <v>4.393283766275603</v>
+      </c>
+      <c r="E75">
+        <v>8.2507</v>
+      </c>
+      <c r="F75">
+        <v>12.8407</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>13</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>-0.083</v>
+      </c>
+      <c r="L75">
+        <v>0.083</v>
+      </c>
+      <c r="M75">
+        <v>2.35883659</v>
+      </c>
+      <c r="N75">
+        <v>-2.27583659</v>
+      </c>
+      <c r="O75">
+        <v>-0.3413754885</v>
+      </c>
+      <c r="P75">
+        <v>-1.9344611015</v>
+      </c>
+      <c r="Q75">
+        <v>-2.0174611015</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1474293081858714</v>
+      </c>
+      <c r="T75">
+        <v>2.204250346584894</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.00527802563890193</v>
+      </c>
+      <c r="W75">
+        <v>0.1827304266901337</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.0351868375926796</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1749431246939829</v>
+      </c>
+      <c r="C76">
+        <v>-8.669571621036967</v>
+      </c>
+      <c r="D76">
+        <v>4.347028378963033</v>
+      </c>
+      <c r="E76">
+        <v>8.426600000000001</v>
+      </c>
+      <c r="F76">
+        <v>13.0166</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>13</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>-0.083</v>
+      </c>
+      <c r="L76">
+        <v>0.083</v>
+      </c>
+      <c r="M76">
+        <v>2.39114942</v>
+      </c>
+      <c r="N76">
+        <v>-2.30814942</v>
+      </c>
+      <c r="O76">
+        <v>-0.346222413</v>
+      </c>
+      <c r="P76">
+        <v>-1.961927007</v>
+      </c>
+      <c r="Q76">
+        <v>-2.044927007</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.152741973885328</v>
+      </c>
+      <c r="T76">
+        <v>2.289029206068928</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.005206700968105958</v>
+      </c>
+      <c r="W76">
+        <v>0.1827435290321589</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.03471133978737317</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1766871246939829</v>
+      </c>
+      <c r="C77">
+        <v>-8.890763142154684</v>
+      </c>
+      <c r="D77">
+        <v>4.301736857845315</v>
+      </c>
+      <c r="E77">
+        <v>8.602499999999999</v>
+      </c>
+      <c r="F77">
+        <v>13.1925</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>13</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>-0.083</v>
+      </c>
+      <c r="L77">
+        <v>0.083</v>
+      </c>
+      <c r="M77">
+        <v>2.42346225</v>
+      </c>
+      <c r="N77">
+        <v>-2.34046225</v>
+      </c>
+      <c r="O77">
+        <v>-0.3510693375</v>
+      </c>
+      <c r="P77">
+        <v>-1.9893929125</v>
+      </c>
+      <c r="Q77">
+        <v>-2.0723929125</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1584796528407411</v>
+      </c>
+      <c r="T77">
+        <v>2.380590374311686</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.005137278288531212</v>
+      </c>
+      <c r="W77">
+        <v>0.1827562819783968</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.03424852192354144</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1784311246939829</v>
+      </c>
+      <c r="C78">
+        <v>-9.111020613871711</v>
+      </c>
+      <c r="D78">
+        <v>4.257379386128289</v>
+      </c>
+      <c r="E78">
+        <v>8.7784</v>
+      </c>
+      <c r="F78">
+        <v>13.3684</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>13</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>-0.083</v>
+      </c>
+      <c r="L78">
+        <v>0.083</v>
+      </c>
+      <c r="M78">
+        <v>2.45577508</v>
+      </c>
+      <c r="N78">
+        <v>-2.37277508</v>
+      </c>
+      <c r="O78">
+        <v>-0.355916262</v>
+      </c>
+      <c r="P78">
+        <v>-2.016858818</v>
+      </c>
+      <c r="Q78">
+        <v>-2.099858818</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1646954717091054</v>
+      </c>
+      <c r="T78">
+        <v>2.479781639908006</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.005069682521576854</v>
+      </c>
+      <c r="W78">
+        <v>0.1827686993207863</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.03379788347717905</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1801751246939829</v>
+      </c>
+      <c r="C79">
+        <v>-9.330372635707567</v>
+      </c>
+      <c r="D79">
+        <v>4.213927364292433</v>
+      </c>
+      <c r="E79">
+        <v>8.9543</v>
+      </c>
+      <c r="F79">
+        <v>13.5443</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>13</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>-0.083</v>
+      </c>
+      <c r="L79">
+        <v>0.083</v>
+      </c>
+      <c r="M79">
+        <v>2.48808791</v>
+      </c>
+      <c r="N79">
+        <v>-2.40508791</v>
+      </c>
+      <c r="O79">
+        <v>-0.3607631864999999</v>
+      </c>
+      <c r="P79">
+        <v>-2.0443247235</v>
+      </c>
+      <c r="Q79">
+        <v>-2.1273247235</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.171451796566023</v>
+      </c>
+      <c r="T79">
+        <v>2.587598232947485</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.005003842488829103</v>
+      </c>
+      <c r="W79">
+        <v>0.1827807941348021</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.03335894992552746</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1819191246939829</v>
+      </c>
+      <c r="C80">
+        <v>-9.548846651398787</v>
+      </c>
+      <c r="D80">
+        <v>4.171353348601214</v>
+      </c>
+      <c r="E80">
+        <v>9.1302</v>
+      </c>
+      <c r="F80">
+        <v>13.7202</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>13</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>-0.083</v>
+      </c>
+      <c r="L80">
+        <v>0.083</v>
+      </c>
+      <c r="M80">
+        <v>2.52040074</v>
+      </c>
+      <c r="N80">
+        <v>-2.43740074</v>
+      </c>
+      <c r="O80">
+        <v>-0.365610111</v>
+      </c>
+      <c r="P80">
+        <v>-2.071790629</v>
+      </c>
+      <c r="Q80">
+        <v>-2.154790629</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1788223327735695</v>
+      </c>
+      <c r="T80">
+        <v>2.705216334445098</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.004939690662049243</v>
+      </c>
+      <c r="W80">
+        <v>0.1827925788253816</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.03293127108032834</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1836631246939829</v>
+      </c>
+      <c r="C81">
+        <v>-9.766469006700277</v>
+      </c>
+      <c r="D81">
+        <v>4.129630993299723</v>
+      </c>
+      <c r="E81">
+        <v>9.306100000000001</v>
+      </c>
+      <c r="F81">
+        <v>13.8961</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>13</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>-0.083</v>
+      </c>
+      <c r="L81">
+        <v>0.083</v>
+      </c>
+      <c r="M81">
+        <v>2.55271357</v>
+      </c>
+      <c r="N81">
+        <v>-2.46971357</v>
+      </c>
+      <c r="O81">
+        <v>-0.3704570355</v>
+      </c>
+      <c r="P81">
+        <v>-2.0992565345</v>
+      </c>
+      <c r="Q81">
+        <v>-2.1822565345</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1868948248104061</v>
+      </c>
+      <c r="T81">
+        <v>2.834036159894864</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.004877162932149884</v>
+      </c>
+      <c r="W81">
+        <v>0.1828040651693641</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.03251441954766598</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1854071246939829</v>
+      </c>
+      <c r="C82">
+        <v>-9.983265003752241</v>
+      </c>
+      <c r="D82">
+        <v>4.088734996247761</v>
+      </c>
+      <c r="E82">
+        <v>9.482000000000001</v>
+      </c>
+      <c r="F82">
+        <v>14.072</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>13</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>-0.083</v>
+      </c>
+      <c r="L82">
+        <v>0.083</v>
+      </c>
+      <c r="M82">
+        <v>2.5850264</v>
+      </c>
+      <c r="N82">
+        <v>-2.5020264</v>
+      </c>
+      <c r="O82">
+        <v>-0.37530396</v>
+      </c>
+      <c r="P82">
+        <v>-2.12672244</v>
+      </c>
+      <c r="Q82">
+        <v>-2.20972244</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1957745660509265</v>
+      </c>
+      <c r="T82">
+        <v>2.975737967889608</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.004816198395498011</v>
+      </c>
+      <c r="W82">
+        <v>0.182815264354747</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.03210798930332015</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1871511246939829</v>
+      </c>
+      <c r="C83">
+        <v>-10.19925895224835</v>
+      </c>
+      <c r="D83">
+        <v>4.048641047751648</v>
+      </c>
+      <c r="E83">
+        <v>9.657900000000001</v>
+      </c>
+      <c r="F83">
+        <v>14.2479</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>13</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>-0.083</v>
+      </c>
+      <c r="L83">
+        <v>0.083</v>
+      </c>
+      <c r="M83">
+        <v>2.61733923</v>
+      </c>
+      <c r="N83">
+        <v>-2.53433923</v>
+      </c>
+      <c r="O83">
+        <v>-0.3801508845</v>
+      </c>
+      <c r="P83">
+        <v>-2.1541883455</v>
+      </c>
+      <c r="Q83">
+        <v>-2.2371883455</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2055890168957121</v>
+      </c>
+      <c r="T83">
+        <v>3.132355755673272</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.004756739156047418</v>
+      </c>
+      <c r="W83">
+        <v>0.1828261870170341</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.03171159437364957</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1888951246939829</v>
+      </c>
+      <c r="C84">
+        <v>-10.41447421762268</v>
+      </c>
+      <c r="D84">
+        <v>4.009325782377323</v>
+      </c>
+      <c r="E84">
+        <v>9.833800000000002</v>
+      </c>
+      <c r="F84">
+        <v>14.4238</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>13</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>-0.083</v>
+      </c>
+      <c r="L84">
+        <v>0.083</v>
+      </c>
+      <c r="M84">
+        <v>2.64965206</v>
+      </c>
+      <c r="N84">
+        <v>-2.56665206</v>
+      </c>
+      <c r="O84">
+        <v>-0.384997809</v>
+      </c>
+      <c r="P84">
+        <v>-2.181654251</v>
+      </c>
+      <c r="Q84">
+        <v>-2.264654251</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2164939622788072</v>
+      </c>
+      <c r="T84">
+        <v>3.306375519877342</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.00469873014194928</v>
+      </c>
+      <c r="W84">
+        <v>0.1828368432729239</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.03132486761299524</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1906391246939829</v>
+      </c>
+      <c r="C85">
+        <v>-10.62893326645599</v>
+      </c>
+      <c r="D85">
+        <v>3.970766733544008</v>
+      </c>
+      <c r="E85">
+        <v>10.0097</v>
+      </c>
+      <c r="F85">
+        <v>14.5997</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>13</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>-0.083</v>
+      </c>
+      <c r="L85">
+        <v>0.083</v>
+      </c>
+      <c r="M85">
+        <v>2.68196489</v>
+      </c>
+      <c r="N85">
+        <v>-2.59896489</v>
+      </c>
+      <c r="O85">
+        <v>-0.3898447335</v>
+      </c>
+      <c r="P85">
+        <v>-2.2091201565</v>
+      </c>
+      <c r="Q85">
+        <v>-2.2921201565</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2286818424128547</v>
+      </c>
+      <c r="T85">
+        <v>3.500868197517186</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.004642118935419769</v>
+      </c>
+      <c r="W85">
+        <v>0.1828472427515634</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.03094745956946521</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1923831246939829</v>
+      </c>
+      <c r="C86">
+        <v>-10.84265770928695</v>
+      </c>
+      <c r="D86">
+        <v>3.93294229071305</v>
+      </c>
+      <c r="E86">
+        <v>10.1856</v>
+      </c>
+      <c r="F86">
+        <v>14.7756</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>13</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>-0.083</v>
+      </c>
+      <c r="L86">
+        <v>0.083</v>
+      </c>
+      <c r="M86">
+        <v>2.71427772</v>
+      </c>
+      <c r="N86">
+        <v>-2.631277719999999</v>
+      </c>
+      <c r="O86">
+        <v>-0.3946916579999999</v>
+      </c>
+      <c r="P86">
+        <v>-2.236586062</v>
+      </c>
+      <c r="Q86">
+        <v>-2.319586062</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.242393207563658</v>
+      </c>
+      <c r="T86">
+        <v>3.719672459862009</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.004586855614760011</v>
+      </c>
+      <c r="W86">
+        <v>0.1828573946235686</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.03057903743173351</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1941271246939829</v>
+      </c>
+      <c r="C87">
+        <v>-11.05566834099947</v>
+      </c>
+      <c r="D87">
+        <v>3.895831659000524</v>
+      </c>
+      <c r="E87">
+        <v>10.3615</v>
+      </c>
+      <c r="F87">
+        <v>14.9515</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>13</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>-0.083</v>
+      </c>
+      <c r="L87">
+        <v>0.083</v>
+      </c>
+      <c r="M87">
+        <v>2.74659055</v>
+      </c>
+      <c r="N87">
+        <v>-2.66359055</v>
+      </c>
+      <c r="O87">
+        <v>-0.3995385825</v>
+      </c>
+      <c r="P87">
+        <v>-2.2640519675</v>
+      </c>
+      <c r="Q87">
+        <v>-2.3470519675</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2579327547345685</v>
+      </c>
+      <c r="T87">
+        <v>3.967650623852809</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.00453289260752754</v>
+      </c>
+      <c r="W87">
+        <v>0.1828673076279972</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.0302192840501837</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1958711246939829</v>
+      </c>
+      <c r="C88">
+        <v>-11.26798517894501</v>
+      </c>
+      <c r="D88">
+        <v>3.859414821054989</v>
+      </c>
+      <c r="E88">
+        <v>10.5374</v>
+      </c>
+      <c r="F88">
+        <v>15.1274</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>13</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>-0.083</v>
+      </c>
+      <c r="L88">
+        <v>0.083</v>
+      </c>
+      <c r="M88">
+        <v>2.77890338</v>
+      </c>
+      <c r="N88">
+        <v>-2.69590338</v>
+      </c>
+      <c r="O88">
+        <v>-0.404385507</v>
+      </c>
+      <c r="P88">
+        <v>-2.291517873</v>
+      </c>
+      <c r="Q88">
+        <v>-2.374517873</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2756922372156091</v>
+      </c>
+      <c r="T88">
+        <v>4.251054239842296</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.004480184553951639</v>
+      </c>
+      <c r="W88">
+        <v>0.1828769900974391</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.02986789702634429</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1976151246939829</v>
+      </c>
+      <c r="C89">
+        <v>-11.47962749894643</v>
+      </c>
+      <c r="D89">
+        <v>3.823672501053567</v>
+      </c>
+      <c r="E89">
+        <v>10.7133</v>
+      </c>
+      <c r="F89">
+        <v>15.3033</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>13</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>-0.083</v>
+      </c>
+      <c r="L89">
+        <v>0.083</v>
+      </c>
+      <c r="M89">
+        <v>2.81121621</v>
+      </c>
+      <c r="N89">
+        <v>-2.72821621</v>
+      </c>
+      <c r="O89">
+        <v>-0.4092324314999999</v>
+      </c>
+      <c r="P89">
+        <v>-2.3189837785</v>
+      </c>
+      <c r="Q89">
+        <v>-2.4019837785</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.296183947770656</v>
+      </c>
+      <c r="T89">
+        <v>4.578058412137857</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.004428688179768286</v>
+      </c>
+      <c r="W89">
+        <v>0.1828864499813766</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.02952458786512202</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1993591246939829</v>
+      </c>
+      <c r="C90">
+        <v>-11.69061386931973</v>
+      </c>
+      <c r="D90">
+        <v>3.788586130680273</v>
+      </c>
+      <c r="E90">
+        <v>10.8892</v>
+      </c>
+      <c r="F90">
+        <v>15.4792</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>13</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>-0.083</v>
+      </c>
+      <c r="L90">
+        <v>0.083</v>
+      </c>
+      <c r="M90">
+        <v>2.84352904</v>
+      </c>
+      <c r="N90">
+        <v>-2.76052904</v>
+      </c>
+      <c r="O90">
+        <v>-0.414079356</v>
+      </c>
+      <c r="P90">
+        <v>-2.346449684</v>
+      </c>
+      <c r="Q90">
+        <v>-2.429449684</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3200909434182107</v>
+      </c>
+      <c r="T90">
+        <v>4.959563279816012</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.004378362177725465</v>
+      </c>
+      <c r="W90">
+        <v>0.1828956948679518</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.02918908118483654</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2011031246939829</v>
+      </c>
+      <c r="C91">
+        <v>-11.90096218303958</v>
+      </c>
+      <c r="D91">
+        <v>3.754137816960419</v>
+      </c>
+      <c r="E91">
+        <v>11.0651</v>
+      </c>
+      <c r="F91">
+        <v>15.6551</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>13</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>-0.083</v>
+      </c>
+      <c r="L91">
+        <v>0.083</v>
+      </c>
+      <c r="M91">
+        <v>2.87584187</v>
+      </c>
+      <c r="N91">
+        <v>-2.79284187</v>
+      </c>
+      <c r="O91">
+        <v>-0.4189262805</v>
+      </c>
+      <c r="P91">
+        <v>-2.3739155895</v>
+      </c>
+      <c r="Q91">
+        <v>-2.4569155895</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3483446655471389</v>
+      </c>
+      <c r="T91">
+        <v>5.410432668890195</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.004329167097076864</v>
+      </c>
+      <c r="W91">
+        <v>0.182904732004267</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.0288611139805125</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2028471246939829</v>
+      </c>
+      <c r="C92">
+        <v>-12.11068968816594</v>
+      </c>
+      <c r="D92">
+        <v>3.720310311834054</v>
+      </c>
+      <c r="E92">
+        <v>11.241</v>
+      </c>
+      <c r="F92">
+        <v>15.831</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>13</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>-0.083</v>
+      </c>
+      <c r="L92">
+        <v>0.083</v>
+      </c>
+      <c r="M92">
+        <v>2.9081547</v>
+      </c>
+      <c r="N92">
+        <v>-2.8251547</v>
+      </c>
+      <c r="O92">
+        <v>-0.4237732049999999</v>
+      </c>
+      <c r="P92">
+        <v>-2.401381495</v>
+      </c>
+      <c r="Q92">
+        <v>-2.484381495</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3822491321018529</v>
+      </c>
+      <c r="T92">
+        <v>5.951475935779215</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.004281065240442677</v>
+      </c>
+      <c r="W92">
+        <v>0.1829135683153307</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.02854043493628455</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2045911246939829</v>
+      </c>
+      <c r="C93">
+        <v>-12.31981301664032</v>
+      </c>
+      <c r="D93">
+        <v>3.687086983359678</v>
+      </c>
+      <c r="E93">
+        <v>11.4169</v>
+      </c>
+      <c r="F93">
+        <v>16.0069</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>13</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>-0.083</v>
+      </c>
+      <c r="L93">
+        <v>0.083</v>
+      </c>
+      <c r="M93">
+        <v>2.94046753</v>
+      </c>
+      <c r="N93">
+        <v>-2.85746753</v>
+      </c>
+      <c r="O93">
+        <v>-0.4286201295</v>
+      </c>
+      <c r="P93">
+        <v>-2.4288474005</v>
+      </c>
+      <c r="Q93">
+        <v>-2.5118474005</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4236879245576143</v>
+      </c>
+      <c r="T93">
+        <v>6.612751039754684</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.004234020567470778</v>
+      </c>
+      <c r="W93">
+        <v>0.1829222104217556</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.02822680378313858</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2063351246939829</v>
+      </c>
+      <c r="C94">
+        <v>-12.52834821155273</v>
+      </c>
+      <c r="D94">
+        <v>3.654451788447267</v>
+      </c>
+      <c r="E94">
+        <v>11.5928</v>
+      </c>
+      <c r="F94">
+        <v>16.1828</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>13</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>-0.083</v>
+      </c>
+      <c r="L94">
+        <v>0.083</v>
+      </c>
+      <c r="M94">
+        <v>2.97278036</v>
+      </c>
+      <c r="N94">
+        <v>-2.88978036</v>
+      </c>
+      <c r="O94">
+        <v>-0.433467054</v>
+      </c>
+      <c r="P94">
+        <v>-2.456313306</v>
+      </c>
+      <c r="Q94">
+        <v>-2.539313306</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4754864151273163</v>
+      </c>
+      <c r="T94">
+        <v>7.439344919724022</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.004187998604780879</v>
+      </c>
+      <c r="W94">
+        <v>0.1829306646563018</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.02791999069853923</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2080791246939829</v>
+      </c>
+      <c r="C95">
+        <v>-12.73631075297334</v>
+      </c>
+      <c r="D95">
+        <v>3.622389247026665</v>
+      </c>
+      <c r="E95">
+        <v>11.7687</v>
+      </c>
+      <c r="F95">
+        <v>16.3587</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>13</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>-0.083</v>
+      </c>
+      <c r="L95">
+        <v>0.083</v>
+      </c>
+      <c r="M95">
+        <v>3.005093190000001</v>
+      </c>
+      <c r="N95">
+        <v>-2.92209319</v>
+      </c>
+      <c r="O95">
+        <v>-0.4383139785</v>
+      </c>
+      <c r="P95">
+        <v>-2.4837792115</v>
+      </c>
+      <c r="Q95">
+        <v>-2.566779211500001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5420844744312187</v>
+      </c>
+      <c r="T95">
+        <v>8.502108479684598</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.004142966361718718</v>
+      </c>
+      <c r="W95">
+        <v>0.1829389370793523</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.02761977574479146</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2098231246939829</v>
+      </c>
+      <c r="C96">
+        <v>-12.94371558243605</v>
+      </c>
+      <c r="D96">
+        <v>3.59088441756395</v>
+      </c>
+      <c r="E96">
+        <v>11.9446</v>
+      </c>
+      <c r="F96">
+        <v>16.5346</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>13</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>-0.083</v>
+      </c>
+      <c r="L96">
+        <v>0.083</v>
+      </c>
+      <c r="M96">
+        <v>3.03740602</v>
+      </c>
+      <c r="N96">
+        <v>-2.95440602</v>
+      </c>
+      <c r="O96">
+        <v>-0.443160903</v>
+      </c>
+      <c r="P96">
+        <v>-2.511245117</v>
+      </c>
+      <c r="Q96">
+        <v>-2.594245117</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.630881886836422</v>
+      </c>
+      <c r="T96">
+        <v>9.919126559632033</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.004098892251487669</v>
+      </c>
+      <c r="W96">
+        <v>0.1829470334934017</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.02732594834325119</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2115671246939829</v>
+      </c>
+      <c r="C97">
+        <v>-13.15057712615556</v>
+      </c>
+      <c r="D97">
+        <v>3.559922873844444</v>
+      </c>
+      <c r="E97">
+        <v>12.1205</v>
+      </c>
+      <c r="F97">
+        <v>16.7105</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>13</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>-0.083</v>
+      </c>
+      <c r="L97">
+        <v>0.083</v>
+      </c>
+      <c r="M97">
+        <v>3.06971885</v>
+      </c>
+      <c r="N97">
+        <v>-2.98671885</v>
+      </c>
+      <c r="O97">
+        <v>-0.4480078275</v>
+      </c>
+      <c r="P97">
+        <v>-2.5387110225</v>
+      </c>
+      <c r="Q97">
+        <v>-2.6217110225</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7551982642037068</v>
+      </c>
+      <c r="T97">
+        <v>11.90295187155845</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.004055746017261483</v>
+      </c>
+      <c r="W97">
+        <v>0.1829549594566291</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.02703830678174324</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2133111246939829</v>
+      </c>
+      <c r="C98">
+        <v>-13.35690931705346</v>
+      </c>
+      <c r="D98">
+        <v>3.529490682946534</v>
+      </c>
+      <c r="E98">
+        <v>12.2964</v>
+      </c>
+      <c r="F98">
+        <v>16.8864</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>13</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>-0.083</v>
+      </c>
+      <c r="L98">
+        <v>0.083</v>
+      </c>
+      <c r="M98">
+        <v>3.10203168</v>
+      </c>
+      <c r="N98">
+        <v>-3.019031679999999</v>
+      </c>
+      <c r="O98">
+        <v>-0.4528547519999999</v>
+      </c>
+      <c r="P98">
+        <v>-2.566176928</v>
+      </c>
+      <c r="Q98">
+        <v>-2.649176928</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.9416728302546313</v>
+      </c>
+      <c r="T98">
+        <v>14.87868983944802</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.00401349866291501</v>
+      </c>
+      <c r="W98">
+        <v>0.1829627202956225</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.02675665775276681</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2150551246939829</v>
+      </c>
+      <c r="C99">
+        <v>-13.56272561566432</v>
+      </c>
+      <c r="D99">
+        <v>3.499574384335679</v>
+      </c>
+      <c r="E99">
+        <v>12.4723</v>
+      </c>
+      <c r="F99">
+        <v>17.0623</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>13</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>-0.083</v>
+      </c>
+      <c r="L99">
+        <v>0.083</v>
+      </c>
+      <c r="M99">
+        <v>3.13434451</v>
+      </c>
+      <c r="N99">
+        <v>-3.05134451</v>
+      </c>
+      <c r="O99">
+        <v>-0.4577016764999999</v>
+      </c>
+      <c r="P99">
+        <v>-2.5936428335</v>
+      </c>
+      <c r="Q99">
+        <v>-2.6766428335</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.252463773672842</v>
+      </c>
+      <c r="T99">
+        <v>19.83825311926403</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.003972122388039597</v>
+      </c>
+      <c r="W99">
+        <v>0.1829703211173171</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.02648081592026408</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2167991246939829</v>
+      </c>
+      <c r="C100">
+        <v>-13.76803902998731</v>
+      </c>
+      <c r="D100">
+        <v>3.470160970012692</v>
+      </c>
+      <c r="E100">
+        <v>12.6482</v>
+      </c>
+      <c r="F100">
+        <v>17.2382</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>13</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>-0.083</v>
+      </c>
+      <c r="L100">
+        <v>0.083</v>
+      </c>
+      <c r="M100">
+        <v>3.16665734</v>
+      </c>
+      <c r="N100">
+        <v>-3.08365734</v>
+      </c>
+      <c r="O100">
+        <v>-0.4625486009999999</v>
+      </c>
+      <c r="P100">
+        <v>-2.621108739</v>
+      </c>
+      <c r="Q100">
+        <v>-2.704108739</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.874045660509263</v>
+      </c>
+      <c r="T100">
+        <v>29.75737967889605</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.003931590526937152</v>
+      </c>
+      <c r="W100">
+        <v>0.1829777668202016</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.02621060351291438</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2185431246939829</v>
+      </c>
+      <c r="C101">
+        <v>-13.97286213434523</v>
+      </c>
+      <c r="D101">
+        <v>3.441237865654767</v>
+      </c>
+      <c r="E101">
+        <v>12.8241</v>
+      </c>
+      <c r="F101">
+        <v>17.4141</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>13</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>-0.083</v>
+      </c>
+      <c r="L101">
+        <v>0.083</v>
+      </c>
+      <c r="M101">
+        <v>3.19897017</v>
+      </c>
+      <c r="N101">
+        <v>-3.11597017</v>
+      </c>
+      <c r="O101">
+        <v>-0.4673955255</v>
+      </c>
+      <c r="P101">
+        <v>-2.6485746445</v>
+      </c>
+      <c r="Q101">
+        <v>-2.7315746445</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.738791321018526</v>
+      </c>
+      <c r="T101">
+        <v>59.51475935779209</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.003891877491311524</v>
+      </c>
+      <c r="W101">
+        <v>0.1829850621048461</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.02594584994207694</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
